--- a/data/taxon genera files/I genera reduced.xlsx
+++ b/data/taxon genera files/I genera reduced.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="1133">
   <si>
     <r>
       <t>Iberoespora glabella</t>
@@ -16800,6 +16800,34 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Hashemi &amp; Playford 2005</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">INTERCALARIPOLLIS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Góczán &amp; Siegl-Farkas 1989; p. 57-58.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Intercalaripollis arcuatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Góczán &amp; Siegl-Farkas 1989 (T)</t>
     </r>
   </si>
 </sst>
@@ -17353,10 +17381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1132"/>
+  <dimension ref="A1:N1134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A609" workbookViewId="0">
-      <selection activeCell="Q622" sqref="Q622"/>
+    <sheetView tabSelected="1" topLeftCell="A722" workbookViewId="0">
+      <selection activeCell="N730" sqref="N730"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -21193,2169 +21221,2180 @@
     </row>
     <row r="724" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B724" s="5" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E724" s="2"/>
+    </row>
+    <row r="725" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E725" s="2" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="726" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B726" s="5" t="s">
         <v>869</v>
       </c>
-      <c r="E724" s="2"/>
-    </row>
-    <row r="725" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E725" s="1" t="s">
+      <c r="E726" s="2"/>
+    </row>
+    <row r="727" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E727" s="1" t="s">
         <v>485</v>
-      </c>
-    </row>
-    <row r="726" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E726" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="727" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E727" s="2" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="728" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E728" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="729" spans="1:13" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A729" s="21"/>
-      <c r="B729" s="22"/>
-      <c r="C729" s="22"/>
-      <c r="D729" s="23"/>
-      <c r="E729" s="8" t="s">
-        <v>1047</v>
-      </c>
-      <c r="F729" s="12"/>
-      <c r="G729" s="12"/>
-      <c r="H729" s="12"/>
-      <c r="I729" s="24"/>
-      <c r="J729" s="24"/>
-      <c r="K729" s="24"/>
-      <c r="L729" s="24"/>
-      <c r="M729" s="24"/>
+        <v>486</v>
+      </c>
+    </row>
+    <row r="729" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E729" s="2" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="730" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E730" s="2" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="731" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E731" s="2" t="s">
-        <v>489</v>
-      </c>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="731" spans="1:13" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A731" s="21"/>
+      <c r="B731" s="22"/>
+      <c r="C731" s="22"/>
+      <c r="D731" s="23"/>
+      <c r="E731" s="8" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F731" s="12"/>
+      <c r="G731" s="12"/>
+      <c r="H731" s="12"/>
+      <c r="I731" s="24"/>
+      <c r="J731" s="24"/>
+      <c r="K731" s="24"/>
+      <c r="L731" s="24"/>
+      <c r="M731" s="24"/>
     </row>
     <row r="732" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E732" s="2" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="733" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E733" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="734" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E734" s="2" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="733" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B733" s="5" t="s">
+    <row r="735" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B735" s="5" t="s">
         <v>871</v>
       </c>
-      <c r="E733" s="2"/>
-    </row>
-    <row r="734" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E734" s="4" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="735" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E735" s="4" t="s">
-        <v>989</v>
-      </c>
+      <c r="E735" s="2"/>
     </row>
     <row r="736" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E736" s="4" t="s">
-        <v>990</v>
+        <v>491</v>
       </c>
     </row>
     <row r="737" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E737" s="4" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="738" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E738" s="4" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="739" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E739" s="4" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="740" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E740" s="4" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="741" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E741" s="4" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="742" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E742" s="4" t="s">
         <v>994</v>
-      </c>
-    </row>
-    <row r="741" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E741" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="742" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E742" s="2" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="743" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E743" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="744" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E744" s="4" t="s">
-        <v>995</v>
+      <c r="E744" s="2" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="745" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E745" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="746" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E746" s="4" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="747" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E747" s="2" t="s">
         <v>494</v>
-      </c>
-    </row>
-    <row r="746" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E746" s="1" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="747" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E747" s="1" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="748" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E748" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="749" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E749" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="750" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E750" s="1" t="s">
-        <v>497</v>
+        <v>996</v>
       </c>
     </row>
     <row r="751" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E751" s="1" t="s">
-        <v>1004</v>
+        <v>496</v>
       </c>
     </row>
     <row r="752" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E752" s="2" t="s">
-        <v>1008</v>
+      <c r="E752" s="1" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="753" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E753" s="1" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="754" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E754" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="755" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E755" s="1" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="754" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E754" s="1" t="s">
+    <row r="756" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E756" s="1" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="755" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E755" s="4" t="s">
+    <row r="757" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E757" s="4" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="756" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E756" s="4" t="s">
+    <row r="758" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E758" s="4" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="757" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E757" s="2" t="s">
+    <row r="759" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E759" s="2" t="s">
         <v>498</v>
-      </c>
-    </row>
-    <row r="758" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E758" s="2" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="759" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E759" s="1" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="760" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E760" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="761" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E761" s="2" t="s">
-        <v>1007</v>
+      <c r="E761" s="1" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="762" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E762" s="2" t="s">
-        <v>872</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="763" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E763" s="2" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="764" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E764" s="2" t="s">
-        <v>1010</v>
+        <v>872</v>
       </c>
     </row>
     <row r="765" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E765" s="2" t="s">
-        <v>499</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="766" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E766" s="2" t="s">
-        <v>500</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="767" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E767" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="768" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E768" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="769" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E769" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="770" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E770" s="2" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="769" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E769" s="3" t="s">
+    <row r="771" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E771" s="3" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="770" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B770" s="5" t="s">
+    <row r="772" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B772" s="5" t="s">
         <v>873</v>
       </c>
-      <c r="E770" s="2"/>
-    </row>
-    <row r="771" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E771" s="1" t="s">
+      <c r="E772" s="2"/>
+    </row>
+    <row r="773" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E773" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="772" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E772" s="2" t="s">
+    <row r="774" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E774" s="2" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="773" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E773" s="2" t="s">
+    <row r="775" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E775" s="2" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="774" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B774" s="5" t="s">
+    <row r="776" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B776" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="E774" s="2"/>
-    </row>
-    <row r="775" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E775" s="1" t="s">
+      <c r="E776" s="2"/>
+    </row>
+    <row r="777" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E777" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="776" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E776" s="9" t="s">
+    <row r="778" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E778" s="9" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="777" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E777" s="2" t="s">
+    <row r="779" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E779" s="2" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="778" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B778" s="5" t="s">
+    <row r="780" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B780" s="5" t="s">
         <v>877</v>
       </c>
-      <c r="E778" s="2"/>
-    </row>
-    <row r="779" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D779" s="6" t="s">
+      <c r="E780" s="2"/>
+    </row>
+    <row r="781" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D781" s="6" t="s">
         <v>878</v>
-      </c>
-      <c r="E779" s="2"/>
-    </row>
-    <row r="780" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E780" s="2" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="781" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B781" s="5" t="s">
-        <v>879</v>
       </c>
       <c r="E781" s="2"/>
     </row>
     <row r="782" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E782" s="2" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
     </row>
     <row r="783" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E783" s="1" t="s">
-        <v>505</v>
-      </c>
+      <c r="B783" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="E783" s="2"/>
     </row>
     <row r="784" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E784" s="2" t="s">
-        <v>506</v>
+        <v>724</v>
       </c>
     </row>
     <row r="785" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E785" s="2" t="s">
-        <v>880</v>
+      <c r="E785" s="1" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="786" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E786" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="787" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E787" s="2" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="788" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E788" s="2" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="787" spans="1:13" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A787"/>
-      <c r="B787" s="13"/>
-      <c r="C787" s="14"/>
-      <c r="D787" s="15"/>
-      <c r="E787" s="8" t="s">
+    <row r="789" spans="1:13" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A789"/>
+      <c r="B789" s="13"/>
+      <c r="C789" s="14"/>
+      <c r="D789" s="15"/>
+      <c r="E789" s="8" t="s">
         <v>1048</v>
       </c>
-      <c r="F787" s="16"/>
-      <c r="G787" s="17"/>
-      <c r="H787" s="18"/>
-      <c r="I787" s="19"/>
-      <c r="J787" s="19"/>
-      <c r="K787" s="19"/>
-      <c r="L787" s="19"/>
-      <c r="M787" s="19"/>
-    </row>
-    <row r="788" spans="1:13" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A788"/>
-      <c r="B788" s="13"/>
-      <c r="C788" s="14"/>
-      <c r="D788" s="15"/>
-      <c r="E788" s="8" t="s">
+      <c r="F789" s="16"/>
+      <c r="G789" s="17"/>
+      <c r="H789" s="18"/>
+      <c r="I789" s="19"/>
+      <c r="J789" s="19"/>
+      <c r="K789" s="19"/>
+      <c r="L789" s="19"/>
+      <c r="M789" s="19"/>
+    </row>
+    <row r="790" spans="1:13" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A790"/>
+      <c r="B790" s="13"/>
+      <c r="C790" s="14"/>
+      <c r="D790" s="15"/>
+      <c r="E790" s="8" t="s">
         <v>1049</v>
       </c>
-      <c r="F788" s="16"/>
-      <c r="G788" s="17"/>
-      <c r="H788" s="18"/>
-      <c r="I788" s="19"/>
-      <c r="J788" s="19"/>
-      <c r="K788" s="19"/>
-      <c r="L788" s="19"/>
-      <c r="M788" s="19"/>
-    </row>
-    <row r="789" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E789" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="790" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E790" s="2" t="s">
-        <v>508</v>
-      </c>
+      <c r="F790" s="16"/>
+      <c r="G790" s="17"/>
+      <c r="H790" s="18"/>
+      <c r="I790" s="19"/>
+      <c r="J790" s="19"/>
+      <c r="K790" s="19"/>
+      <c r="L790" s="19"/>
+      <c r="M790" s="19"/>
     </row>
     <row r="791" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E791" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="792" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E792" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="793" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B793" s="5" t="s">
-        <v>881</v>
-      </c>
-      <c r="E793" s="2"/>
+      <c r="E793" s="2" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="794" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E794" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="795" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B795" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="E795" s="2"/>
+    </row>
+    <row r="796" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E796" s="2" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="795" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E795" s="2" t="s">
+    <row r="797" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E797" s="2" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="796" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B796" s="5" t="s">
+    <row r="798" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B798" s="5" t="s">
         <v>882</v>
       </c>
-      <c r="E796" s="2"/>
-    </row>
-    <row r="797" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E797" s="4" t="s">
+      <c r="E798" s="2"/>
+    </row>
+    <row r="799" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E799" s="4" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="798" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E798" s="12" t="s">
+    <row r="800" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E800" s="12" t="s">
         <v>1012</v>
-      </c>
-    </row>
-    <row r="799" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E799" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="800" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E800" s="1" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="801" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E801" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="802" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E802" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="803" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E803" s="1" t="s">
         <v>515</v>
-      </c>
-    </row>
-    <row r="802" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E802" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="803" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E803" s="2" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="804" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E804" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="805" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E805" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="806" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E806" s="2" t="s">
         <v>518</v>
-      </c>
-    </row>
-    <row r="805" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E805" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="806" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E806" s="1" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="807" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E807" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="808" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E808" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="809" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E809" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="810" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E810" s="1" t="s">
         <v>521</v>
-      </c>
-    </row>
-    <row r="809" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E809" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="810" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E810" s="2" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="811" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E811" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="812" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E812" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="813" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E813" s="2" t="s">
-        <v>883</v>
+        <v>524</v>
       </c>
     </row>
     <row r="814" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E814" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="815" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E815" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="816" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E816" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="817" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E817" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="816" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E816" s="12" t="s">
+    <row r="818" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E818" s="12" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="817" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E817" s="12" t="s">
+    <row r="819" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E819" s="12" t="s">
         <v>1015</v>
-      </c>
-    </row>
-    <row r="818" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E818" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="819" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E819" s="2" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="820" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E820" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="821" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B821" s="5" t="s">
-        <v>884</v>
-      </c>
-      <c r="E821" s="2"/>
+      <c r="E821" s="2" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="822" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E822" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="823" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B823" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="E823" s="2"/>
+    </row>
+    <row r="824" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E824" s="2" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="823" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E823" s="1" t="s">
+    <row r="825" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E825" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="824" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E824" s="1" t="s">
+    <row r="826" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E826" s="1" t="s">
         <v>533</v>
-      </c>
-    </row>
-    <row r="825" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E825" s="2" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="826" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E826" s="2" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="827" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E827" s="2" t="s">
-        <v>535</v>
+        <v>885</v>
       </c>
     </row>
     <row r="828" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E828" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="829" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E829" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="830" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E830" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="831" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E831" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="832" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B832" s="5" t="s">
-        <v>886</v>
-      </c>
-      <c r="E832" s="2"/>
+      <c r="E832" s="2" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="833" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E833" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="834" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B834" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="E834" s="2"/>
+    </row>
+    <row r="835" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E835" s="2" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="834" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E834" s="2" t="s">
+    <row r="836" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E836" s="2" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="835" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B835" s="5" t="s">
+    <row r="837" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B837" s="5" t="s">
         <v>889</v>
       </c>
-      <c r="E835" s="2"/>
-    </row>
-    <row r="836" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E836" s="1" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="837" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E837" s="1" t="s">
-        <v>541</v>
-      </c>
+      <c r="E837" s="2"/>
     </row>
     <row r="838" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E838" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="839" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E839" s="3" t="s">
-        <v>1109</v>
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="839" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E839" s="1" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="840" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E840" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="841" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E841" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
+      </c>
+    </row>
+    <row r="841" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E841" s="3" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="842" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E842" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="843" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E843" s="1" t="s">
-        <v>546</v>
+      <c r="E843" s="2" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="844" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E844" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="845" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E845" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="846" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E846" s="1" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="845" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E845" s="9" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="846" spans="1:13" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A846" s="21"/>
-      <c r="B846" s="22"/>
-      <c r="C846" s="22"/>
-      <c r="D846" s="27"/>
-      <c r="E846" s="9" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F846" s="12"/>
-      <c r="G846" s="12"/>
-      <c r="H846" s="12"/>
-      <c r="I846" s="24"/>
-      <c r="J846" s="24"/>
-      <c r="K846" s="24"/>
-      <c r="L846" s="24"/>
-      <c r="M846" s="24"/>
     </row>
     <row r="847" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E847" s="9" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="848" spans="1:13" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A848" s="21"/>
+      <c r="B848" s="22"/>
+      <c r="C848" s="22"/>
+      <c r="D848" s="27"/>
+      <c r="E848" s="9" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F848" s="12"/>
+      <c r="G848" s="12"/>
+      <c r="H848" s="12"/>
+      <c r="I848" s="24"/>
+      <c r="J848" s="24"/>
+      <c r="K848" s="24"/>
+      <c r="L848" s="24"/>
+      <c r="M848" s="24"/>
+    </row>
+    <row r="849" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E849" s="9" t="s">
         <v>1105</v>
-      </c>
-    </row>
-    <row r="848" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E848" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="849" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E849" s="2" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="850" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E850" s="2" t="s">
-        <v>1106</v>
+        <v>547</v>
       </c>
     </row>
     <row r="851" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E851" s="2" t="s">
-        <v>1108</v>
+        <v>548</v>
       </c>
     </row>
     <row r="852" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E852" s="2" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="853" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E853" s="2" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="854" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E854" s="2" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="855" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E855" s="2" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="854" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B854" s="5" t="s">
+    <row r="856" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B856" s="5" t="s">
         <v>890</v>
       </c>
-      <c r="E854" s="2"/>
-    </row>
-    <row r="855" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E855" s="1" t="s">
+      <c r="E856" s="2"/>
+    </row>
+    <row r="857" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E857" s="1" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="856" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E856" s="1" t="s">
+    <row r="858" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E858" s="1" t="s">
         <v>550</v>
-      </c>
-    </row>
-    <row r="857" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E857" s="2" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="858" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E858" s="2" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="859" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E859" s="2" t="s">
-        <v>552</v>
+        <v>891</v>
       </c>
     </row>
     <row r="860" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E860" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="861" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E861" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="862" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E862" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="863" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E863" s="2" t="s">
         <v>554</v>
-      </c>
-    </row>
-    <row r="862" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B862" s="5" t="s">
-        <v>892</v>
-      </c>
-      <c r="E862" s="2"/>
-    </row>
-    <row r="863" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E863" s="1" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="864" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B864" s="5" t="s">
-        <v>894</v>
-      </c>
-      <c r="E864" s="1"/>
+        <v>892</v>
+      </c>
+      <c r="E864" s="2"/>
     </row>
     <row r="865" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E865" s="2" t="s">
-        <v>895</v>
+      <c r="E865" s="1" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="866" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B866" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="E866" s="2"/>
+        <v>894</v>
+      </c>
+      <c r="E866" s="1"/>
     </row>
     <row r="867" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E867" s="2" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="868" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B868" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="E868" s="2"/>
+    </row>
+    <row r="869" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E869" s="2" t="s">
         <v>727</v>
-      </c>
-    </row>
-    <row r="868" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E868" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="869" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E869" s="9" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="870" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E870" s="2" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="871" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E871" s="2" t="s">
-        <v>1080</v>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="871" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E871" s="9" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="872" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E872" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="873" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E873" s="2" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="874" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E874" s="2" t="s">
         <v>1081</v>
-      </c>
-    </row>
-    <row r="873" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E873" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="874" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E874" s="1" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="875" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E875" s="1" t="s">
-        <v>1083</v>
+        <v>557</v>
       </c>
     </row>
     <row r="876" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E876" s="1" t="s">
-        <v>558</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="877" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E877" s="1" t="s">
-        <v>559</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="878" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E878" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="879" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E879" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="880" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E880" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="881" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E881" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="882" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E882" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="883" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E883" s="1" t="s">
         <v>563</v>
-      </c>
-    </row>
-    <row r="882" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E882" s="2" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="883" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E883" s="2" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="884" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E884" s="2" t="s">
-        <v>1084</v>
+        <v>564</v>
       </c>
     </row>
     <row r="885" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E885" s="2" t="s">
-        <v>1113</v>
+        <v>565</v>
       </c>
     </row>
     <row r="886" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E886" s="2" t="s">
-        <v>566</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="887" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E887" s="2" t="s">
-        <v>567</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="888" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E888" s="2" t="s">
-        <v>1114</v>
+        <v>566</v>
       </c>
     </row>
     <row r="889" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E889" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="890" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E890" s="2" t="s">
-        <v>569</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="891" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E891" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="892" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E892" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="893" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E893" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="894" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E894" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="895" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E895" s="2" t="s">
-        <v>1085</v>
+        <v>572</v>
       </c>
     </row>
     <row r="896" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E896" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="897" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E897" s="2" t="s">
-        <v>575</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="898" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E898" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="899" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E899" s="2" t="s">
-        <v>1086</v>
+        <v>575</v>
       </c>
     </row>
     <row r="900" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E900" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="901" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E901" s="2" t="s">
-        <v>578</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="902" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E902" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="903" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E903" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="904" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E904" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="905" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E905" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="906" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E906" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="907" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E907" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="908" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E908" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="909" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E909" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="910" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E910" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="911" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E911" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="912" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E912" s="2" t="s">
-        <v>1087</v>
+        <v>587</v>
       </c>
     </row>
     <row r="913" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E913" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="914" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E914" s="2" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="915" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E915" s="2" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="914" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E914" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="915" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B915" s="5" t="s">
-        <v>896</v>
-      </c>
-      <c r="E915" s="1"/>
     </row>
     <row r="916" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E916" s="1" t="s">
-        <v>897</v>
+        <v>589</v>
       </c>
     </row>
     <row r="917" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B917" s="5" t="s">
-        <v>741</v>
+        <v>896</v>
       </c>
       <c r="E917" s="1"/>
     </row>
     <row r="918" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E918" s="1" t="s">
-        <v>740</v>
+        <v>897</v>
       </c>
     </row>
     <row r="919" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B919" s="5" t="s">
-        <v>1098</v>
+        <v>741</v>
       </c>
       <c r="E919" s="1"/>
     </row>
     <row r="920" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E920" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="921" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B921" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E921" s="1"/>
+    </row>
+    <row r="922" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E922" s="1" t="s">
         <v>1099</v>
-      </c>
-    </row>
-    <row r="921" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E921" s="2" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="922" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E922" s="2" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="923" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E923" s="2" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="924" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E924" s="2" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="925" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E925" s="2" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="924" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B924" s="5" t="s">
+    <row r="926" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B926" s="5" t="s">
         <v>858</v>
       </c>
-      <c r="E924" s="2"/>
-    </row>
-    <row r="925" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E925" s="1" t="s">
+      <c r="E926" s="2"/>
+    </row>
+    <row r="927" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E927" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="926" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E926" s="2" t="s">
+    <row r="928" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E928" s="2" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="927" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E927" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="928" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B928" s="5" t="s">
-        <v>856</v>
-      </c>
-      <c r="E928" s="2"/>
     </row>
     <row r="929" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E929" s="2" t="s">
-        <v>857</v>
+        <v>592</v>
       </c>
     </row>
     <row r="930" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B930" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="E930" s="2"/>
+    </row>
+    <row r="931" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E931" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="932" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B932" s="5" t="s">
         <v>860</v>
       </c>
-      <c r="E930" s="2"/>
-    </row>
-    <row r="931" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E931" s="1" t="s">
+      <c r="E932" s="2"/>
+    </row>
+    <row r="933" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E933" s="1" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="932" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E932" s="1" t="s">
+    <row r="934" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E934" s="1" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="933" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E933" s="2" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="934" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B934" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E934" s="2"/>
     </row>
     <row r="935" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E935" s="2" t="s">
-        <v>716</v>
+        <v>861</v>
       </c>
     </row>
     <row r="936" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B936" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E936" s="2"/>
+    </row>
+    <row r="937" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E937" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="938" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B938" s="5" t="s">
         <v>899</v>
       </c>
-      <c r="E936" s="2"/>
-    </row>
-    <row r="937" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E937" s="1" t="s">
+      <c r="E938" s="2"/>
+    </row>
+    <row r="939" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E939" s="1" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="938" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E938" s="1" t="s">
+    <row r="940" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E940" s="1" t="s">
         <v>945</v>
-      </c>
-    </row>
-    <row r="939" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E939" s="2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="940" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E940" s="2" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="941" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E941" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="942" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E942" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="943" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E943" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="944" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E944" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="945" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E945" s="2" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="944" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B944" s="5" t="s">
+    <row r="946" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B946" s="5" t="s">
         <v>901</v>
       </c>
-      <c r="E944" s="2"/>
-    </row>
-    <row r="945" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E945" s="1" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="946" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E946" s="2" t="s">
-        <v>600</v>
-      </c>
+      <c r="E946" s="2"/>
     </row>
     <row r="947" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E947" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="948" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E948" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="949" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E949" s="1" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="948" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B948" s="5" t="s">
+    <row r="950" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B950" s="5" t="s">
         <v>903</v>
       </c>
-      <c r="E948" s="1"/>
-    </row>
-    <row r="949" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E949" s="2" t="s">
+      <c r="E950" s="1"/>
+    </row>
+    <row r="951" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E951" s="2" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="950" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E950" s="2" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="951" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B951" s="5" t="s">
-        <v>905</v>
-      </c>
-      <c r="E951" s="2"/>
     </row>
     <row r="952" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E952" s="2" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="953" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B953" s="5" t="s">
-        <v>961</v>
+        <v>905</v>
       </c>
       <c r="E953" s="2"/>
     </row>
     <row r="954" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E954" s="1" t="s">
-        <v>962</v>
+      <c r="E954" s="2" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="955" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B955" s="5" t="s">
-        <v>907</v>
-      </c>
-      <c r="E955" s="1"/>
+        <v>961</v>
+      </c>
+      <c r="E955" s="2"/>
     </row>
     <row r="956" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E956" s="1" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="957" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="957" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B957" s="5" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E957" s="1"/>
     </row>
     <row r="958" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E958" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="959" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B959" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="E959" s="1"/>
+    </row>
+    <row r="960" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E960" s="1" t="s">
         <v>913</v>
-      </c>
-    </row>
-    <row r="959" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E959" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="960" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E960" s="2" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="961" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E961" s="1" t="s">
-        <v>911</v>
+        <v>601</v>
       </c>
     </row>
     <row r="962" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E962" s="2" t="s">
-        <v>602</v>
+        <v>912</v>
       </c>
     </row>
     <row r="963" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E963" s="1" t="s">
-        <v>603</v>
+        <v>911</v>
       </c>
     </row>
     <row r="964" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E964" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="965" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E965" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="966" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E966" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="967" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E967" s="1" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="966" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E966" s="1" t="s">
+    <row r="968" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E968" s="1" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="967" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E967" s="2" t="s">
+    <row r="969" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E969" s="2" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="968" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E968" s="2" t="s">
+    <row r="970" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E970" s="2" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="969" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E969" s="1" t="s">
+    <row r="971" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E971" s="1" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="970" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E970" s="1" t="s">
+    <row r="972" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E972" s="1" t="s">
         <v>606</v>
-      </c>
-    </row>
-    <row r="971" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E971" s="2" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="972" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E972" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="973" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E973" s="2" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="974" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E974" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="975" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E975" s="2" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="976" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E976" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="977" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E977" s="2" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="978" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E978" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="979" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E979" s="2" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="978" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B978" s="5" t="s">
+    <row r="980" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B980" s="5" t="s">
         <v>918</v>
       </c>
-      <c r="E978" s="2"/>
-    </row>
-    <row r="979" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E979" s="4" t="s">
+      <c r="E980" s="2"/>
+    </row>
+    <row r="981" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E981" s="4" t="s">
         <v>611</v>
-      </c>
-    </row>
-    <row r="980" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E980" s="1" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="981" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E981" s="1" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="982" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E982" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="983" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E983" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="984" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E984" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="985" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E985" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="986" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E986" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="987" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E987" s="1" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="986" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E986" s="2" t="s">
+    <row r="988" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E988" s="2" t="s">
         <v>618</v>
-      </c>
-    </row>
-    <row r="987" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E987" s="2" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="988" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E988" s="1" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="989" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E989" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="990" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E990" s="2" t="s">
-        <v>622</v>
+      <c r="E990" s="1" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="991" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E991" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="992" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E992" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="993" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E993" s="2" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="992" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E992" s="1" t="s">
+    <row r="994" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E994" s="1" t="s">
         <v>624</v>
-      </c>
-    </row>
-    <row r="993" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E993" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="994" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E994" s="2" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="995" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E995" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="996" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E996" s="1" t="s">
-        <v>628</v>
+      <c r="E996" s="2" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="997" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E997" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="998" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E998" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="999" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E999" s="2" t="s">
-        <v>631</v>
+      <c r="E999" s="1" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="1000" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1000" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="1001" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1001" s="1" t="s">
-        <v>633</v>
+      <c r="E1001" s="2" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="1002" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1002" s="1" t="s">
-        <v>919</v>
+        <v>632</v>
       </c>
     </row>
     <row r="1003" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1003" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1004" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1004" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="1005" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1005" s="1" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="1004" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1004" s="2" t="s">
+    <row r="1006" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1006" s="2" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="1005" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1005" s="2" t="s">
+    <row r="1007" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1007" s="2" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="1006" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1006" s="1" t="s">
+    <row r="1008" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1008" s="1" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="1007" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1007" s="1" t="s">
+    <row r="1009" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1009" s="1" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="1008" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1008" s="2" t="s">
+    <row r="1010" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1010" s="2" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="1009" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E1009" s="9" t="s">
+    <row r="1011" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E1011" s="9" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="1010" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1010" s="1" t="s">
+    <row r="1012" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1012" s="1" t="s">
         <v>640</v>
-      </c>
-    </row>
-    <row r="1011" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1011" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="1012" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1012" s="2" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="1013" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1013" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="1014" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1014" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="1015" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1015" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="1016" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1016" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="1017" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1017" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="1018" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1018" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="1019" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1019" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="1020" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1020" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="1021" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1021" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="1022" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1022" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="1023" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1023" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="1024" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1024" s="2" t="s">
-        <v>717</v>
+        <v>652</v>
       </c>
     </row>
     <row r="1025" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1025" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="1026" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1026" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="1027" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1027" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="1028" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1028" s="2" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="1027" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1027" s="5" t="s">
+    <row r="1029" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1029" s="5" t="s">
         <v>921</v>
       </c>
-      <c r="E1027" s="2"/>
-    </row>
-    <row r="1028" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D1028" s="6" t="s">
+      <c r="E1029" s="2"/>
+    </row>
+    <row r="1030" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D1030" s="6" t="s">
         <v>1129</v>
       </c>
-      <c r="E1028" s="2"/>
-    </row>
-    <row r="1029" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1029" s="2" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="1030" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1030" s="2" t="s">
-        <v>656</v>
-      </c>
+      <c r="E1030" s="2"/>
     </row>
     <row r="1031" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1031" s="2" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="1032" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1032" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="1033" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1033" s="2" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="1032" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1032" s="1" t="s">
+    <row r="1034" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1034" s="1" t="s">
         <v>658</v>
-      </c>
-    </row>
-    <row r="1033" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1033" s="5" t="s">
-        <v>922</v>
-      </c>
-      <c r="E1033" s="1"/>
-    </row>
-    <row r="1034" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1034" s="2" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="1035" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B1035" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="E1035" s="1"/>
+    </row>
+    <row r="1036" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1036" s="2" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="1037" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1037" s="5" t="s">
         <v>924</v>
       </c>
-      <c r="E1035" s="2"/>
-    </row>
-    <row r="1036" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C1036" s="7" t="s">
+      <c r="E1037" s="2"/>
+    </row>
+    <row r="1038" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C1038" s="7" t="s">
         <v>946</v>
       </c>
-      <c r="E1036" s="2"/>
-    </row>
-    <row r="1037" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C1037" s="10" t="s">
+      <c r="E1038" s="2"/>
+    </row>
+    <row r="1039" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C1039" s="10" t="s">
         <v>925</v>
       </c>
-      <c r="E1037" s="2"/>
-    </row>
-    <row r="1038" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1038" s="2" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="1039" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1039" s="2" t="s">
-        <v>660</v>
-      </c>
+      <c r="E1039" s="2"/>
     </row>
     <row r="1040" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1040" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1041" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1042" s="2" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="1041" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E1041" s="3" t="s">
+    <row r="1043" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E1043" s="3" t="s">
         <v>1076</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1042" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="1043" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1043" s="1" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="1044" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1044" s="1" t="s">
-        <v>1077</v>
+        <v>712</v>
       </c>
     </row>
     <row r="1045" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1045" s="1" t="s">
-        <v>661</v>
+        <v>713</v>
       </c>
     </row>
     <row r="1046" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1046" s="1" t="s">
-        <v>1018</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1047" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1047" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1048" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1049" s="1" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="1048" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1048" s="2" t="s">
+    <row r="1050" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1050" s="2" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="1049" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1049" s="2" t="s">
+    <row r="1051" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1051" s="2" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="1050" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1050" s="1" t="s">
+    <row r="1052" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1052" s="1" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="1051" spans="1:13" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1051"/>
-      <c r="B1051" s="13"/>
-      <c r="C1051" s="14"/>
-      <c r="D1051" s="6"/>
-      <c r="E1051" s="9" t="s">
+    <row r="1053" spans="1:13" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1053"/>
+      <c r="B1053" s="13"/>
+      <c r="C1053" s="14"/>
+      <c r="D1053" s="6"/>
+      <c r="E1053" s="9" t="s">
         <v>1115</v>
       </c>
-      <c r="F1051" s="16"/>
-      <c r="G1051" s="17"/>
-      <c r="H1051" s="18"/>
-      <c r="I1051" s="19"/>
-      <c r="J1051" s="19"/>
-      <c r="K1051" s="19"/>
-      <c r="L1051" s="19"/>
-      <c r="M1051" s="19"/>
-    </row>
-    <row r="1052" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1052" s="8" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="1053" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1053" s="8" t="s">
-        <v>1117</v>
-      </c>
+      <c r="F1053" s="16"/>
+      <c r="G1053" s="17"/>
+      <c r="H1053" s="18"/>
+      <c r="I1053" s="19"/>
+      <c r="J1053" s="19"/>
+      <c r="K1053" s="19"/>
+      <c r="L1053" s="19"/>
+      <c r="M1053" s="19"/>
     </row>
     <row r="1054" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1054" s="8" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1055" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1055" s="8" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1056" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1056" s="8" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1057" s="8" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1058" s="8" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="1057" spans="1:13" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1057"/>
-      <c r="B1057" s="13"/>
-      <c r="C1057" s="14"/>
-      <c r="D1057" s="6"/>
-      <c r="E1057" s="9" t="s">
+    <row r="1059" spans="1:13" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1059"/>
+      <c r="B1059" s="13"/>
+      <c r="C1059" s="14"/>
+      <c r="D1059" s="6"/>
+      <c r="E1059" s="9" t="s">
         <v>1121</v>
       </c>
-      <c r="F1057" s="16"/>
-      <c r="G1057" s="17"/>
-      <c r="H1057" s="18"/>
-      <c r="I1057" s="19"/>
-      <c r="J1057" s="19"/>
-      <c r="K1057" s="19"/>
-      <c r="L1057" s="19"/>
-      <c r="M1057" s="19"/>
-    </row>
-    <row r="1058" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1058" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="1059" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1059" s="1" t="s">
-        <v>666</v>
-      </c>
+      <c r="F1059" s="16"/>
+      <c r="G1059" s="17"/>
+      <c r="H1059" s="18"/>
+      <c r="I1059" s="19"/>
+      <c r="J1059" s="19"/>
+      <c r="K1059" s="19"/>
+      <c r="L1059" s="19"/>
+      <c r="M1059" s="19"/>
     </row>
     <row r="1060" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1060" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="1061" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1061" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="1062" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1062" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="1063" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1063" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="1064" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1064" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="1065" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1065" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="1066" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1066" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="1067" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1067" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="1068" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1068" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="1069" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1069" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1070" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1071" s="1" t="s">
         <v>676</v>
-      </c>
-    </row>
-    <row r="1070" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1070" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="1071" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1071" s="2" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="1072" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1072" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="1073" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1073" s="2" t="s">
-        <v>679</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1074" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1074" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1075" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1075" s="2" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="1076" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E1076" s="9" t="s">
-        <v>1112</v>
+        <v>679</v>
+      </c>
+    </row>
+    <row r="1076" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1076" s="2" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="1077" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1077" s="2" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="1078" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1078" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
+      </c>
+    </row>
+    <row r="1078" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E1078" s="9" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="1079" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1079" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="1080" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1080" s="2" t="s">
-        <v>1021</v>
+        <v>683</v>
       </c>
     </row>
     <row r="1081" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1081" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="1082" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1082" s="2" t="s">
-        <v>686</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1083" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1083" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="1084" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1084" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="1085" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1085" s="2" t="s">
-        <v>1022</v>
+        <v>687</v>
       </c>
     </row>
     <row r="1086" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1086" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="1087" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1087" s="2" t="s">
-        <v>690</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1088" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1088" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="1089" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1089" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="1090" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1090" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="1091" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1091" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="1092" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1092" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="1093" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1093" s="2" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="1092" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1092" s="29" t="s">
+    <row r="1094" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1094" s="29" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="1093" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1093" s="5" t="s">
+    <row r="1095" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1095" s="5" t="s">
         <v>940</v>
       </c>
-      <c r="E1093" s="2"/>
-    </row>
-    <row r="1094" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1094" s="2" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="1095" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1095" s="2" t="s">
-        <v>943</v>
-      </c>
+      <c r="E1095" s="2"/>
     </row>
     <row r="1096" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1096" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="1097" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1097" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="1098" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1098" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="E1098" s="2"/>
+      <c r="E1098" s="2" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="1099" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1099" s="2" t="s">
-        <v>695</v>
+        <v>944</v>
       </c>
     </row>
     <row r="1100" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B1100" s="5" t="s">
-        <v>734</v>
+        <v>710</v>
       </c>
       <c r="E1100" s="2"/>
     </row>
     <row r="1101" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1101" s="1" t="s">
-        <v>711</v>
+      <c r="E1101" s="2" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="1102" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B1102" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="E1102" s="2"/>
+    </row>
+    <row r="1103" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1103" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="1104" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1104" s="5" t="s">
         <v>926</v>
       </c>
-      <c r="E1102" s="1"/>
-    </row>
-    <row r="1103" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1103" s="2" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="1104" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1104" s="1" t="s">
-        <v>927</v>
-      </c>
+      <c r="E1104" s="1"/>
     </row>
     <row r="1105" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1105" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="1106" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1106" s="1" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="1107" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1107" s="2" t="s">
         <v>697</v>
-      </c>
-    </row>
-    <row r="1106" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1106" s="5" t="s">
-        <v>928</v>
-      </c>
-      <c r="E1106" s="2"/>
-    </row>
-    <row r="1107" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1107" s="1" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="1108" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B1108" s="5" t="s">
-        <v>732</v>
-      </c>
-      <c r="E1108" s="1"/>
+        <v>928</v>
+      </c>
+      <c r="E1108" s="2"/>
     </row>
     <row r="1109" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1109" s="1" t="s">
-        <v>733</v>
+        <v>929</v>
       </c>
     </row>
     <row r="1110" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B1110" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="E1110" s="1"/>
+    </row>
+    <row r="1111" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1111" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="1112" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1112" s="5" t="s">
         <v>930</v>
       </c>
-      <c r="E1110" s="1"/>
-    </row>
-    <row r="1111" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D1111" s="6" t="s">
+      <c r="E1112" s="1"/>
+    </row>
+    <row r="1113" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D1113" s="6" t="s">
         <v>931</v>
       </c>
-      <c r="E1111" s="1"/>
-    </row>
-    <row r="1112" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1112" s="1" t="s">
+      <c r="E1113" s="1"/>
+    </row>
+    <row r="1114" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1114" s="1" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="1113" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B1113" s="5" t="s">
+    <row r="1115" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B1115" s="5" t="s">
         <v>933</v>
       </c>
-      <c r="E1113" s="1"/>
-    </row>
-    <row r="1114" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D1114" s="6" t="s">
+      <c r="E1115" s="1"/>
+    </row>
+    <row r="1116" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D1116" s="6" t="s">
         <v>934</v>
-      </c>
-      <c r="E1114" s="1"/>
-    </row>
-    <row r="1115" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1115" s="1" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="1116" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1116" s="5" t="s">
-        <v>935</v>
       </c>
       <c r="E1116" s="1"/>
     </row>
     <row r="1117" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1117" s="1" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="1118" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B1118" s="5" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E1118" s="1"/>
     </row>
     <row r="1119" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1119" s="2" t="s">
-        <v>938</v>
+      <c r="E1119" s="1" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="1120" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B1120" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="E1120" s="1"/>
+    </row>
+    <row r="1121" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1121" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="1122" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1122" s="5" t="s">
         <v>939</v>
       </c>
-      <c r="E1120" s="2"/>
-    </row>
-    <row r="1121" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1121" s="1" t="s">
+      <c r="E1122" s="2"/>
+    </row>
+    <row r="1123" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1123" s="1" t="s">
         <v>698</v>
-      </c>
-    </row>
-    <row r="1122" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1122" s="2" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="1123" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1123" s="2" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="1124" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1124" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="1125" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1125" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="1126" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1126" s="2" t="s">
-        <v>1060</v>
+        <v>701</v>
       </c>
     </row>
     <row r="1127" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1127" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="1128" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1128" s="2" t="s">
-        <v>704</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="1129" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1129" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="1130" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1130" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="1131" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1131" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="1132" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1132" s="2" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="1131" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1131" s="5" t="s">
+    <row r="1133" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1133" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="E1131" s="2"/>
-    </row>
-    <row r="1132" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1132" s="1" t="s">
+      <c r="E1133" s="2"/>
+    </row>
+    <row r="1134" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1134" s="1" t="s">
         <v>964</v>
       </c>
     </row>

--- a/data/taxon genera files/I genera reduced.xlsx
+++ b/data/taxon genera files/I genera reduced.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="1133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="1141">
   <si>
     <r>
       <t>Iberoespora glabella</t>
@@ -13518,9 +13518,6 @@
     </r>
   </si>
   <si>
-    <t>Ramanujamiaspora</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">ISTISPORITES </t>
     </r>
@@ -15094,27 +15091,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Mandal &amp; Vijaya 2011</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Interporopollenites weylandii</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Kedves &amp; Hegedüs 1975;   *</t>
     </r>
   </si>
   <si>
@@ -15932,17 +15908,904 @@
   </si>
   <si>
     <r>
-      <t>cf.</t>
-    </r>
-    <r>
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Ischyosporites badagriensis</t>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Intratriporopollenites ambiguus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Takahashi 1961</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Intratriporopollenites baculianulatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Trevisan 1967</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Intratriporopollenites ceciliensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Krutzsch 1961</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Intratriporopollenites fordonensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Gruas-Cavagnetto 1991</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Intratriporopollenites giganteus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Krutzsch &amp; Vanhoorne 1977</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Intratriporopollenites maii</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Planderova 1972</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Intratriporopollenites neumarkensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Mai 1961</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Intratriporopollenites pertenuireticulatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Trevisan 1967</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Intratriporopollenites tiliaceus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Takahashi 1961</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Intratriporopollenites triangularis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Venkatachala &amp; Sharma 1974</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ibrahimispores densispinosus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Konyali &amp; Agrali, in Agrali &amp; Konyali, 1969</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Inapertisporites longissimus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Sheffy &amp; Dilcher 1971</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Inapertisporites irregularis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Sheffy &amp; Dilcher 1971</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Inapertisporites reticulatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Sheffy &amp; Dilcher 1971</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Inapertisporites obscurus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Sheffy &amp; Dilcher 1971</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Inapertisporites subcapsularis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Sheffy &amp; Dilcher 1971</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Inapertisporites subcurvatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Sheffy &amp; Dilcher 1971</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Inapertisporites scabridus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Sheffy &amp; Dilcher 1971</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Inapertisporites nodulus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Sheffy &amp; Dilcher 1971</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">INUNDATISPORIS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Srivastava 1972a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Inundatisporis krutzschii</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Kedves 1980b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Inundatisporis tappanii</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Srivastava 1972a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Inundatisporis pliocenicus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Krutzsch) Srivastava 1972a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ilexpollenites verrucatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Pocknall &amp; Mildenhall 1984</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Intrapunctisporis altranftensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Krutzsch 1962</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Intrapunctisporis latepunctatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Semenova 1970</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Intrapunctisporis medius</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Semenova 1970</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Intrapunctisporis plicatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Rouse 1962</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Intrapunctisporis pteridaceiformis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Timoshina 1985</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Intrapunctisporis plicatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Saxena &amp; Rao 1996</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Intrapunctisporis exilis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> d'Amato-Avanzi 1974</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Intertriletes labiatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> d'Amato-Avanzi 1974</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Isabelidinium microarmum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> subsp. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">bicavatum </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tabără &amp; Slimani 2019</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ischyosporites problematicus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Jaramillo &amp; Dilcher 2001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Intratriporopollenites maximus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Krutzsch 1970</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Intratriporopollenites megainstructus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Krutzsch &amp; Vanhoorne 1977</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ischyosporites dubius</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> D'Apolito, Jaramillo &amp; Harrington 2021</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ischyosporites eocaenicus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Krutzsch &amp; Vanhoorne 1977</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ischyosporites eocenicus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Krutzsch 1967</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ischyosporites estherae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Deák 1964</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ischyosporites foveasolidus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Krutzsch 1967</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ischyosporites foveolatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Pocock) Fensome 1987</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ischyosporites granulatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> D'Apolito, Jaramillo &amp; Harrington 2021</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Inaperturopollenites tectatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> D'Apolito, Jaramillo &amp; Harrington 2021</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Inapertisporites tiwarii</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Gupta 2002</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Inapertisporites dilcheri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Chandra, Saxena &amp; Setty 1984</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Inapertisporites miocenicus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Singh, Saxena &amp; Rao 1986</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Inapertisporites ellipticus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Chandra, Saxena &amp; Setty 1984</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Inapertisporites deccanii</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Chitaley &amp; Yawale) Kalgutkar &amp; Jansonius 2000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Inapertisporites solidus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Song &amp; Cao 1994</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;Obligate junior synonym of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ischyosporites</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, having the same type species.&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Indotriradites lissoyensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Hashemi &amp; Playford 2005</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">INTERCALARIPOLLIS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Góczán &amp; Siegl-Farkas 1989; p. 57-58.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Intercalaripollis arcuatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Góczán &amp; Siegl-Farkas 1989 (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Islandinium pacificum </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Gurdebeke et al. 2020</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ischyosporites? badagriensis</t>
     </r>
     <r>
       <rPr>
@@ -15956,147 +16819,51 @@
   </si>
   <si>
     <r>
+      <t>Ramanujamiaspora</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Inaperturosporites inapertus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Anderson 1977</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <i/>
         <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Intratriporopollenites ambiguus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Takahashi 1961</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Intratriporopollenites baculianulatus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Trevisan 1967</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Intratriporopollenites ceciliensis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Krutzsch 1961</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Intratriporopollenites fordonensis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Gruas-Cavagnetto 1991</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Intratriporopollenites giganteus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Krutzsch &amp; Vanhoorne 1977</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Intratriporopollenites maii</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Planderova 1972</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Intratriporopollenites neumarkensis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Mai 1961</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Intratriporopollenites pertenuireticulatus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Trevisan 1967</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Intratriporopollenites tiliaceus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Takahashi 1961</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Intratriporopollenites triangularis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Venkatachala &amp; Sharma 1974</t>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Interporopollenites weylandii</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Kedves &amp; Hegedüs 1975</t>
     </r>
   </si>
   <si>
@@ -16108,726 +16875,86 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Ibrahimispores densispinosus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Konyali &amp; Agrali, in Agrali &amp; Konyali, 1969</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Inapertisporites longissimus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Sheffy &amp; Dilcher 1971</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Inapertisporites irregularis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Sheffy &amp; Dilcher 1971</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Inapertisporites reticulatus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Sheffy &amp; Dilcher 1971</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Inapertisporites obscurus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Sheffy &amp; Dilcher 1971</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Inapertisporites subcapsularis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Sheffy &amp; Dilcher 1971</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Inapertisporites subcurvatus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Sheffy &amp; Dilcher 1971</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Inapertisporites scabridus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Sheffy &amp; Dilcher 1971</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Inapertisporites nodulus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Sheffy &amp; Dilcher 1971</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">INUNDATISPORIS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Srivastava 1972a</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Inundatisporis krutzschii</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Kedves 1980b</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Inundatisporis tappanii</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Srivastava 1972a</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Inundatisporis pliocenicus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Krutzsch) Srivastava 1972a</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ilexpollenites verrucatus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Pocknall &amp; Mildenhall 1984</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Intrapunctisporis altranftensis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Krutzsch 1962</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Intrapunctisporis latepunctatus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Semenova 1970</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Intrapunctisporis medius</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Semenova 1970</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Intrapunctisporis plicatus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Rouse 1962</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Intrapunctisporis pteridaceiformis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Timoshina 1985</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Intrapunctisporis plicatus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Saxena &amp; Rao 1996</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Intrapunctisporis exilis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> d'Amato-Avanzi 1974</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Intertriletes labiatus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> d'Amato-Avanzi 1974</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Isabelidinium microarmum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> subsp. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">bicavatum </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tabără &amp; Slimani 2019</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ischyosporites problematicus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Jaramillo &amp; Dilcher 2001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Intratriporopollenites maximus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Krutzsch 1970</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Intratriporopollenites megainstructus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Krutzsch &amp; Vanhoorne 1977</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ischyosporites dubius</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> D'Apolito, Jaramillo &amp; Harrington 2021</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ischyosporites eocaenicus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Krutzsch &amp; Vanhoorne 1977</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ischyosporites eocenicus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Krutzsch 1967</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ischyosporites estherae</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Deák 1964</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ischyosporites foveasolidus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Krutzsch 1967</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ischyosporites foveolatus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Pocock) Fensome 1987</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ischyosporites granulatus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> D'Apolito, Jaramillo &amp; Harrington 2021</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Inaperturopollenites tectatus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> D'Apolito, Jaramillo &amp; Harrington 2021</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Inapertisporites tiwarii</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Gupta 2002</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Inapertisporites dilcheri</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Chandra, Saxena &amp; Setty 1984</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Inapertisporites miocenicus </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Singh, Saxena &amp; Rao 1986</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Inapertisporites ellipticus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Chandra, Saxena &amp; Setty 1984</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Inapertisporites deccanii</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Chitaley &amp; Yawale) Kalgutkar &amp; Jansonius 2000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Inapertisporites solidus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Song &amp; Cao 1994</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">&lt;Obligate junior synonym of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ischyosporites</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, having the same type species.&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Indotriradites lissoyensis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Hashemi &amp; Playford 2005</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">INTERCALARIPOLLIS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Góczán &amp; Siegl-Farkas 1989; p. 57-58.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Intercalaripollis arcuatus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Góczán &amp; Siegl-Farkas 1989 (T)</t>
+      <t>Interporopollenites zaklinskaiae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Kedves &amp; Hegedüs 1975</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Interporopollenites guinetii </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kedves &amp; Hegedüs 1975</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Interporopollenites rugosus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Song &amp; Cao 1980</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Interporopollenites rugulatus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kedves &amp; Hegedüs 1975</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Interporopollenites thomsoni</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Kedves &amp; Hegedüs 1975</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Interporopollenites triangulus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Kedves &amp; Hegedüs 1975</t>
     </r>
   </si>
 </sst>
@@ -17381,10 +17508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1134"/>
+  <dimension ref="A1:N1142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A722" workbookViewId="0">
-      <selection activeCell="N730" sqref="N730"/>
+    <sheetView tabSelected="1" topLeftCell="A1119" workbookViewId="0">
+      <selection activeCell="E1142" sqref="E1142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -17398,7 +17525,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B1" s="11" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
@@ -17449,13 +17576,13 @@
     </row>
     <row r="12" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E13" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -17508,7 +17635,7 @@
     </row>
     <row r="23" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E23" s="3" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -17751,17 +17878,17 @@
     </row>
     <row r="70" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E70" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E71" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E72" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
@@ -17776,12 +17903,12 @@
     </row>
     <row r="75" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E75" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E76" s="1" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="77" spans="1:13" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -17790,7 +17917,7 @@
       <c r="C77" s="14"/>
       <c r="D77" s="26"/>
       <c r="E77" s="8" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F77" s="16"/>
       <c r="G77" s="17"/>
@@ -17868,7 +17995,7 @@
     </row>
     <row r="91" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E91" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="92" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -17903,17 +18030,17 @@
     </row>
     <row r="98" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E98" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="99" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E99" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="100" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E100" s="2" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="101" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17938,12 +18065,12 @@
     </row>
     <row r="105" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E105" s="9" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="106" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E106" s="2" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="107" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -17953,7 +18080,7 @@
     </row>
     <row r="108" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E108" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="109" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -17975,7 +18102,7 @@
     </row>
     <row r="112" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B112" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E112" s="1"/>
     </row>
@@ -17992,13 +18119,13 @@
     </row>
     <row r="115" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C115" s="10" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E115" s="2"/>
     </row>
     <row r="116" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C116" s="10" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E116" s="2"/>
     </row>
@@ -18014,7 +18141,7 @@
     </row>
     <row r="119" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E119" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="120" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18346,7 +18473,7 @@
     </row>
     <row r="185" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E185" s="3" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="186" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18446,7 +18573,7 @@
     </row>
     <row r="205" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E205" s="2" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="206" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18596,7 +18723,7 @@
     </row>
     <row r="235" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E235" s="9" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="236" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18606,7 +18733,7 @@
     </row>
     <row r="237" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E237" s="3" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="238" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18647,7 +18774,7 @@
     </row>
     <row r="245" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E245" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="246" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18682,7 +18809,7 @@
     </row>
     <row r="252" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E252" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="253" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18692,7 +18819,7 @@
     </row>
     <row r="254" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E254" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="255" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18787,7 +18914,7 @@
     </row>
     <row r="273" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E273" s="2" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="274" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18807,7 +18934,7 @@
     </row>
     <row r="277" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E277" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="278" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18859,7 +18986,7 @@
     </row>
     <row r="287" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B287" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E287" s="1"/>
     </row>
@@ -18881,7 +19008,7 @@
     </row>
     <row r="291" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E291" s="28" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="292" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -18946,7 +19073,7 @@
     </row>
     <row r="304" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E304" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="305" spans="5:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -18966,12 +19093,12 @@
     </row>
     <row r="308" spans="5:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E308" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="309" spans="5:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E309" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="310" spans="5:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -18991,7 +19118,7 @@
     </row>
     <row r="313" spans="5:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E313" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="314" spans="5:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -19082,7 +19209,7 @@
     </row>
     <row r="331" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E331" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="332" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -19182,7 +19309,7 @@
     </row>
     <row r="351" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E351" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="352" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -19192,12 +19319,12 @@
     </row>
     <row r="353" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E353" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="354" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E354" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="355" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -19227,7 +19354,7 @@
     </row>
     <row r="360" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E360" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="361" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -19262,7 +19389,7 @@
     </row>
     <row r="367" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E367" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="368" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -19283,7 +19410,7 @@
     </row>
     <row r="371" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B371" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E371" s="2"/>
     </row>
@@ -19309,7 +19436,7 @@
     </row>
     <row r="376" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E376" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="377" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -19396,12 +19523,12 @@
     </row>
     <row r="388" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E388" s="8" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="389" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E389" s="8" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="390" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
@@ -19444,7 +19571,7 @@
     </row>
     <row r="397" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E397" s="2" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="398" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
@@ -19463,7 +19590,7 @@
       <c r="C400" s="22"/>
       <c r="D400" s="23"/>
       <c r="E400" s="9" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="F400" s="12"/>
       <c r="G400" s="12"/>
@@ -19480,7 +19607,7 @@
       <c r="C401" s="22"/>
       <c r="D401" s="23"/>
       <c r="E401" s="9" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="F401" s="12"/>
       <c r="G401" s="12"/>
@@ -19508,7 +19635,7 @@
     </row>
     <row r="405" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E405" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="406" spans="1:14" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -19517,7 +19644,7 @@
       <c r="C406" s="14"/>
       <c r="D406" s="15"/>
       <c r="E406" s="9" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="F406" s="16"/>
       <c r="G406" s="17"/>
@@ -19541,7 +19668,7 @@
     </row>
     <row r="409" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E409" s="8" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="410" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -19581,17 +19708,17 @@
     </row>
     <row r="417" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E417" s="3" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="418" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E418" s="30" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="419" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E419" s="3" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="420" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -19606,7 +19733,7 @@
     </row>
     <row r="422" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E422" s="30" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="423" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -19621,32 +19748,32 @@
     </row>
     <row r="425" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E425" s="9" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="426" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E426" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="427" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E427" s="2" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="428" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E428" s="3" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="429" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E429" s="9" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="430" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E430" s="9" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="431" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -19671,7 +19798,7 @@
     </row>
     <row r="435" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E435" s="3" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="436" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -19681,7 +19808,7 @@
     </row>
     <row r="437" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E437" s="2" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="438" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -19696,32 +19823,32 @@
     </row>
     <row r="440" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E440" s="12" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="441" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E441" s="2" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="442" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E442" s="3" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="443" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E443" s="9" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="444" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E444" s="2" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="445" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E445" s="2" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="446" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -19731,7 +19858,7 @@
     </row>
     <row r="447" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E447" s="2" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="448" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -19741,7 +19868,7 @@
     </row>
     <row r="449" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E449" s="9" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="450" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -19751,7 +19878,7 @@
     </row>
     <row r="451" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E451" s="2" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="452" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -19830,12 +19957,12 @@
     </row>
     <row r="466" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E466" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="467" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E467" s="3" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="468" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -19920,7 +20047,7 @@
     </row>
     <row r="484" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E484" s="3" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="485" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -19950,7 +20077,7 @@
     </row>
     <row r="490" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E490" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="491" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -20080,7 +20207,7 @@
     </row>
     <row r="516" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E516" s="9" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="517" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -20095,7 +20222,7 @@
     </row>
     <row r="519" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E519" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="520" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -20105,7 +20232,7 @@
     </row>
     <row r="521" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E521" s="8" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="522" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -20210,7 +20337,7 @@
     </row>
     <row r="542" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E542" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="543" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -20220,7 +20347,7 @@
     </row>
     <row r="544" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E544" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="545" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
@@ -20245,7 +20372,7 @@
     </row>
     <row r="549" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E549" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="550" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
@@ -20269,7 +20396,7 @@
       <c r="C553" s="14"/>
       <c r="D553" s="6"/>
       <c r="E553" s="9" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="F553" s="16"/>
       <c r="G553" s="17"/>
@@ -20296,7 +20423,7 @@
       <c r="C556" s="22"/>
       <c r="D556" s="23"/>
       <c r="E556" s="9" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="F556" s="12"/>
       <c r="G556" s="12"/>
@@ -20360,3042 +20487,3082 @@
     </row>
     <row r="567" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E567" s="2" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="568" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E568" s="2" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="568" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B568" s="5" t="s">
+    <row r="569" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B569" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="E568" s="2"/>
-    </row>
-    <row r="569" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E569" s="1" t="s">
+      <c r="E569" s="2"/>
+    </row>
+    <row r="570" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E570" s="1" t="s">
         <v>822</v>
-      </c>
-    </row>
-    <row r="570" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E570" s="2" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="571" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E571" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="572" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E572" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="573" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E573" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="574" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E574" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="575" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E575" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="575" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B575" s="5" t="s">
+    <row r="576" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B576" s="5" t="s">
         <v>823</v>
       </c>
-      <c r="E575" s="2"/>
-    </row>
-    <row r="576" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E576" s="2" t="s">
+      <c r="E576" s="2"/>
+    </row>
+    <row r="577" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E577" s="2" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="577" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B577" s="5" t="s">
+    <row r="578" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B578" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="E577" s="2"/>
-    </row>
-    <row r="578" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E578" s="1" t="s">
+      <c r="E578" s="2"/>
+    </row>
+    <row r="579" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E579" s="1" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="579" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E579" s="3" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="580" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E580" s="2" t="s">
+    <row r="580" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E580" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="581" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E581" s="2" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="581" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B581" s="5" t="s">
+    <row r="582" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B582" s="5" t="s">
         <v>827</v>
       </c>
-      <c r="E581" s="2"/>
-    </row>
-    <row r="582" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E582" s="2" t="s">
-        <v>828</v>
-      </c>
+      <c r="E582" s="2"/>
     </row>
     <row r="583" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E583" s="2" t="s">
-        <v>403</v>
+        <v>828</v>
       </c>
     </row>
     <row r="584" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E584" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="585" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E585" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="585" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E585" s="1" t="s">
+    <row r="586" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E586" s="1" t="s">
         <v>405</v>
-      </c>
-    </row>
-    <row r="586" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E586" s="2" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="587" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E587" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="588" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E588" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="588" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B588" s="5" t="s">
+    <row r="589" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B589" s="5" t="s">
         <v>831</v>
       </c>
-      <c r="E588" s="2"/>
-    </row>
-    <row r="589" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E589" s="1" t="s">
-        <v>830</v>
-      </c>
+      <c r="E589" s="2"/>
     </row>
     <row r="590" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E590" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="591" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E591" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="591" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E591" s="2" t="s">
+    <row r="592" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E592" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="592" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B592" s="5" t="s">
+    <row r="593" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B593" s="5" t="s">
         <v>832</v>
       </c>
-      <c r="E592" s="2"/>
-    </row>
-    <row r="593" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E593" s="1" t="s">
+      <c r="E593" s="2"/>
+    </row>
+    <row r="594" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E594" s="1" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="594" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B594" s="5" t="s">
+    <row r="595" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B595" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="E594" s="1"/>
-    </row>
-    <row r="595" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E595" s="1" t="s">
-        <v>410</v>
-      </c>
+      <c r="E595" s="1"/>
     </row>
     <row r="596" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E596" s="1" t="s">
-        <v>834</v>
+        <v>410</v>
       </c>
     </row>
     <row r="597" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E597" s="1" t="s">
-        <v>411</v>
+        <v>834</v>
       </c>
     </row>
     <row r="598" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E598" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="599" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E599" s="1" t="s">
         <v>412</v>
-      </c>
-    </row>
-    <row r="599" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E599" s="2" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="600" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E600" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="601" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E601" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="602" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E602" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="602" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E602" s="1" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="603" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B603" s="5" t="s">
+    <row r="603" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E603" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="604" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B604" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="E603" s="2"/>
-    </row>
-    <row r="604" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E604" s="2" t="s">
-        <v>416</v>
-      </c>
+      <c r="E604" s="2"/>
     </row>
     <row r="605" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E605" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="606" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E606" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="606" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E606" s="1" t="s">
+    <row r="607" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E607" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="607" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E607" s="3" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="608" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E608" s="1" t="s">
+    <row r="608" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E608" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="609" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E609" s="1" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="609" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E609" s="2" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="610" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E610" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="611" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E611" s="2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="611" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E611" s="3" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="612" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E612" s="1" t="s">
-        <v>422</v>
+    <row r="612" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E612" s="3" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="613" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E613" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="614" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E614" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="614" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E614" s="30" t="s">
-        <v>1130</v>
-      </c>
-    </row>
     <row r="615" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E615" s="1" t="s">
+      <c r="E615" s="30" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="616" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E616" s="1" t="s">
         <v>424</v>
-      </c>
-    </row>
-    <row r="616" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E616" s="2" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="617" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E617" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="618" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E618" s="2" t="s">
-        <v>736</v>
+        <v>426</v>
       </c>
     </row>
     <row r="619" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E619" s="2" t="s">
-        <v>427</v>
+        <v>736</v>
       </c>
     </row>
     <row r="620" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E620" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="621" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E621" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="622" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E622" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="623" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E623" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="624" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E624" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="625" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E625" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="626" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E626" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="627" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E627" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="628" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E628" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="629" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E629" s="2" t="s">
-        <v>765</v>
+        <v>436</v>
       </c>
     </row>
     <row r="630" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E630" s="2" t="s">
-        <v>437</v>
+        <v>765</v>
       </c>
     </row>
     <row r="631" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E631" s="2" t="s">
-        <v>766</v>
+        <v>437</v>
       </c>
     </row>
     <row r="632" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E632" s="2" t="s">
-        <v>438</v>
+        <v>766</v>
       </c>
     </row>
     <row r="633" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E633" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="634" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E634" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="634" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B634" s="5" t="s">
+    <row r="635" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B635" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="E635" s="2"/>
+    </row>
+    <row r="636" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E636" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="E634" s="2"/>
-    </row>
-    <row r="635" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E635" s="1" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="636" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B636" s="5" t="s">
+    </row>
+    <row r="637" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B637" s="5" t="s">
         <v>836</v>
       </c>
-      <c r="E636" s="1"/>
-    </row>
-    <row r="637" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E637" s="1" t="s">
+      <c r="E637" s="1"/>
+    </row>
+    <row r="638" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E638" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="638" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E638" s="3" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="639" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E639" s="2" t="s">
-        <v>441</v>
+    <row r="639" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E639" s="3" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="640" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E640" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="641" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E641" s="2" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="641" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B641" s="5" t="s">
+    <row r="642" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B642" s="5" t="s">
         <v>838</v>
       </c>
-      <c r="E641" s="2"/>
-    </row>
-    <row r="642" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E642" s="2" t="s">
+      <c r="E642" s="2"/>
+    </row>
+    <row r="643" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E643" s="2" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="643" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B643" s="5" t="s">
+    <row r="644" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B644" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="E643" s="2"/>
-    </row>
-    <row r="644" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E644" s="1" t="s">
-        <v>442</v>
-      </c>
+      <c r="E644" s="2"/>
     </row>
     <row r="645" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E645" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="646" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E646" s="1" t="s">
         <v>443</v>
-      </c>
-    </row>
-    <row r="646" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E646" s="2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="647" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E647" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="648" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E648" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="649" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E649" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="650" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E650" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="651" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E651" s="2" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="651" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B651" s="5" t="s">
+    <row r="652" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B652" s="5" t="s">
         <v>842</v>
       </c>
-      <c r="E651" s="2"/>
-    </row>
-    <row r="652" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E652" s="1" t="s">
+      <c r="E652" s="2"/>
+    </row>
+    <row r="653" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E653" s="1" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="653" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B653" s="5" t="s">
+    <row r="654" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B654" s="5" t="s">
         <v>844</v>
       </c>
-      <c r="E653" s="1"/>
-    </row>
-    <row r="654" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E654" s="2" t="s">
+      <c r="E654" s="1"/>
+    </row>
+    <row r="655" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E655" s="2" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="655" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E655" s="1" t="s">
+    <row r="656" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E656" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="656" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B656" s="5" t="s">
+    <row r="657" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B657" s="5" t="s">
         <v>846</v>
       </c>
-      <c r="E656" s="1"/>
-    </row>
-    <row r="657" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E657" s="1" t="s">
+      <c r="E657" s="1"/>
+    </row>
+    <row r="658" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E658" s="1" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="658" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B658" s="5" t="s">
+    <row r="659" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B659" s="5" t="s">
         <v>848</v>
       </c>
-      <c r="E658" s="1"/>
-    </row>
-    <row r="659" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C659" s="7" t="s">
+      <c r="E659" s="1"/>
+    </row>
+    <row r="660" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C660" s="7" t="s">
         <v>852</v>
       </c>
-      <c r="E659" s="1"/>
-    </row>
-    <row r="660" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E660" s="2" t="s">
+      <c r="E660" s="1"/>
+    </row>
+    <row r="661" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E661" s="2" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="661" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B661" s="5" t="s">
+    <row r="662" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B662" s="5" t="s">
         <v>850</v>
       </c>
-      <c r="E661" s="2"/>
-    </row>
-    <row r="662" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D662" s="6" t="s">
+      <c r="E662" s="2"/>
+    </row>
+    <row r="663" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D663" s="6" t="s">
         <v>853</v>
       </c>
-      <c r="E662" s="2"/>
-    </row>
-    <row r="663" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E663" s="2" t="s">
+      <c r="E663" s="2"/>
+    </row>
+    <row r="664" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E664" s="2" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="664" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B664" s="5" t="s">
+    <row r="665" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B665" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="E664" s="2"/>
-    </row>
-    <row r="665" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E665" s="2" t="s">
+      <c r="E665" s="2"/>
+    </row>
+    <row r="666" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E666" s="2" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="666" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E666" s="1" t="s">
+    <row r="667" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E667" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="667" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B667" s="5" t="s">
+    <row r="668" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B668" s="5" t="s">
         <v>862</v>
       </c>
-      <c r="E667" s="1"/>
-    </row>
-    <row r="668" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E668" s="1" t="s">
+      <c r="E668" s="1"/>
+    </row>
+    <row r="669" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E669" s="1" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="669" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B669" s="5" t="s">
-        <v>957</v>
-      </c>
-      <c r="E669" s="1"/>
-    </row>
     <row r="670" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E670" s="1" t="s">
-        <v>450</v>
-      </c>
+      <c r="B670" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="E670" s="1"/>
     </row>
     <row r="671" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E671" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="672" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E672" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="672" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B672" s="5" t="s">
+    <row r="673" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B673" s="5" t="s">
         <v>864</v>
       </c>
-      <c r="E672" s="1"/>
-    </row>
-    <row r="673" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E673" s="2" t="s">
+      <c r="E673" s="1"/>
+    </row>
+    <row r="674" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E674" s="2" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="674" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B674" s="5" t="s">
+    <row r="675" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B675" s="5" t="s">
         <v>866</v>
       </c>
-      <c r="E674" s="2"/>
-    </row>
-    <row r="675" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E675" s="2" t="s">
+      <c r="E675" s="2"/>
+    </row>
+    <row r="676" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E676" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="676" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B676" s="5" t="s">
+    <row r="677" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B677" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="E677" s="2"/>
+    </row>
+    <row r="678" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E678" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="E676" s="2"/>
-    </row>
-    <row r="677" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E677" s="1" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="678" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E678" s="3" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="679" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B679" s="5" t="s">
+    </row>
+    <row r="679" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E679" s="3" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="680" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B680" s="5" t="s">
         <v>867</v>
       </c>
-      <c r="E679" s="1"/>
-    </row>
-    <row r="680" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C680" s="7" t="s">
+      <c r="E680" s="1"/>
+    </row>
+    <row r="681" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C681" s="7" t="s">
         <v>762</v>
       </c>
-      <c r="E680" s="1"/>
-    </row>
-    <row r="681" spans="1:13" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A681" s="21"/>
-      <c r="B681" s="22"/>
-      <c r="C681" s="22"/>
-      <c r="D681" s="23"/>
-      <c r="E681" s="9" t="s">
-        <v>1043</v>
-      </c>
-      <c r="F681" s="12"/>
-      <c r="G681" s="12"/>
-      <c r="H681" s="12"/>
-      <c r="I681" s="24"/>
-      <c r="J681" s="24"/>
-      <c r="K681" s="24"/>
-      <c r="L681" s="24"/>
-      <c r="M681" s="24"/>
-    </row>
-    <row r="682" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E682" s="2" t="s">
-        <v>458</v>
-      </c>
+      <c r="E681" s="1"/>
+    </row>
+    <row r="682" spans="1:13" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A682" s="21"/>
+      <c r="B682" s="22"/>
+      <c r="C682" s="22"/>
+      <c r="D682" s="23"/>
+      <c r="E682" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F682" s="12"/>
+      <c r="G682" s="12"/>
+      <c r="H682" s="12"/>
+      <c r="I682" s="24"/>
+      <c r="J682" s="24"/>
+      <c r="K682" s="24"/>
+      <c r="L682" s="24"/>
+      <c r="M682" s="24"/>
     </row>
     <row r="683" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E683" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="684" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E684" s="2" t="s">
         <v>459</v>
-      </c>
-    </row>
-    <row r="684" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E684" s="1" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="685" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E685" s="1" t="s">
-        <v>868</v>
+        <v>460</v>
       </c>
     </row>
     <row r="686" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E686" s="1" t="s">
-        <v>461</v>
+        <v>868</v>
       </c>
     </row>
     <row r="687" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E687" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="688" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E688" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="689" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E689" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="690" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E690" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="691" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E691" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="691" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E691" s="2" t="s">
+    <row r="692" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E692" s="2" t="s">
         <v>466</v>
-      </c>
-    </row>
-    <row r="692" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E692" s="1" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="693" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E693" s="1" t="s">
-        <v>761</v>
+        <v>467</v>
       </c>
     </row>
     <row r="694" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E694" s="1" t="s">
-        <v>468</v>
+        <v>761</v>
       </c>
     </row>
     <row r="695" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E695" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="696" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E696" s="1" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
     </row>
     <row r="697" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E697" s="1" t="s">
-        <v>763</v>
+        <v>453</v>
       </c>
     </row>
     <row r="698" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E698" s="1" t="s">
-        <v>454</v>
+        <v>763</v>
       </c>
     </row>
     <row r="699" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E699" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="700" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E700" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="701" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E701" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="702" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E702" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="702" spans="1:13" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A702" s="21"/>
-      <c r="B702" s="22"/>
-      <c r="C702" s="22"/>
-      <c r="D702" s="23"/>
-      <c r="E702" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="F702" s="12"/>
-      <c r="G702" s="12"/>
-      <c r="H702" s="12"/>
-      <c r="I702" s="24"/>
-      <c r="J702" s="24"/>
-      <c r="K702" s="24"/>
-      <c r="L702" s="24"/>
-      <c r="M702" s="24"/>
-    </row>
-    <row r="703" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E703" s="2" t="s">
-        <v>470</v>
-      </c>
+    <row r="703" spans="1:13" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A703" s="21"/>
+      <c r="B703" s="22"/>
+      <c r="C703" s="22"/>
+      <c r="D703" s="23"/>
+      <c r="E703" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F703" s="12"/>
+      <c r="G703" s="12"/>
+      <c r="H703" s="12"/>
+      <c r="I703" s="24"/>
+      <c r="J703" s="24"/>
+      <c r="K703" s="24"/>
+      <c r="L703" s="24"/>
+      <c r="M703" s="24"/>
     </row>
     <row r="704" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E704" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="705" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E705" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="705" spans="1:13" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A705" s="21"/>
-      <c r="B705" s="22"/>
-      <c r="C705" s="22"/>
-      <c r="D705" s="23"/>
-      <c r="E705" s="8" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F705" s="12"/>
-      <c r="G705" s="12"/>
-      <c r="H705" s="12"/>
-      <c r="I705" s="24"/>
-      <c r="J705" s="24"/>
-      <c r="K705" s="24"/>
-      <c r="L705" s="24"/>
-      <c r="M705" s="24"/>
-    </row>
-    <row r="706" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E706" s="1" t="s">
+    <row r="706" spans="1:13" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A706" s="21"/>
+      <c r="B706" s="22"/>
+      <c r="C706" s="22"/>
+      <c r="D706" s="23"/>
+      <c r="E706" s="8" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F706" s="12"/>
+      <c r="G706" s="12"/>
+      <c r="H706" s="12"/>
+      <c r="I706" s="24"/>
+      <c r="J706" s="24"/>
+      <c r="K706" s="24"/>
+      <c r="L706" s="24"/>
+      <c r="M706" s="24"/>
+    </row>
+    <row r="707" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E707" s="1" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="707" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E707" s="2" t="s">
+    <row r="708" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E708" s="2" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="708" spans="1:13" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A708" s="21"/>
-      <c r="B708" s="22"/>
-      <c r="C708" s="22"/>
-      <c r="D708" s="23"/>
-      <c r="E708" s="8" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F708" s="9"/>
-      <c r="G708" s="12"/>
-      <c r="H708" s="12"/>
-      <c r="I708" s="24"/>
-      <c r="J708" s="24"/>
-      <c r="K708" s="24"/>
-      <c r="L708" s="24"/>
-      <c r="M708" s="24"/>
-    </row>
-    <row r="709" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E709" s="2" t="s">
-        <v>474</v>
-      </c>
+    <row r="709" spans="1:13" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A709" s="21"/>
+      <c r="B709" s="22"/>
+      <c r="C709" s="22"/>
+      <c r="D709" s="23"/>
+      <c r="E709" s="8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F709" s="9"/>
+      <c r="G709" s="12"/>
+      <c r="H709" s="12"/>
+      <c r="I709" s="24"/>
+      <c r="J709" s="24"/>
+      <c r="K709" s="24"/>
+      <c r="L709" s="24"/>
+      <c r="M709" s="24"/>
     </row>
     <row r="710" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E710" s="2" t="s">
-        <v>760</v>
+        <v>474</v>
       </c>
     </row>
     <row r="711" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E711" s="2" t="s">
-        <v>475</v>
+        <v>760</v>
       </c>
     </row>
     <row r="712" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E712" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="713" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E713" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="714" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E714" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="715" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E715" s="2" t="s">
-        <v>759</v>
+        <v>478</v>
       </c>
     </row>
     <row r="716" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E716" s="2" t="s">
-        <v>479</v>
+        <v>759</v>
       </c>
     </row>
     <row r="717" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E717" s="2" t="s">
-        <v>764</v>
+        <v>479</v>
       </c>
     </row>
     <row r="718" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E718" s="2" t="s">
-        <v>480</v>
+        <v>764</v>
       </c>
     </row>
     <row r="719" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E719" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="720" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E720" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="721" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E721" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="722" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E722" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="722" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B722" s="5" t="s">
-        <v>960</v>
-      </c>
-      <c r="E722" s="2"/>
-    </row>
     <row r="723" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E723" s="2" t="s">
+      <c r="B723" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="E723" s="2"/>
+    </row>
+    <row r="724" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E724" s="2" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="724" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B724" s="5" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E724" s="2"/>
-    </row>
     <row r="725" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E725" s="2" t="s">
-        <v>1132</v>
-      </c>
+      <c r="B725" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E725" s="2"/>
     </row>
     <row r="726" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B726" s="5" t="s">
+      <c r="E726" s="2" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="727" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B727" s="5" t="s">
         <v>869</v>
       </c>
-      <c r="E726" s="2"/>
-    </row>
-    <row r="727" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E727" s="1" t="s">
+      <c r="E727" s="2"/>
+    </row>
+    <row r="728" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E728" s="1" t="s">
         <v>485</v>
-      </c>
-    </row>
-    <row r="728" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E728" s="2" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="729" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E729" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="730" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E730" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="731" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E731" s="2" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="731" spans="1:13" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A731" s="21"/>
-      <c r="B731" s="22"/>
-      <c r="C731" s="22"/>
-      <c r="D731" s="23"/>
-      <c r="E731" s="8" t="s">
-        <v>1047</v>
-      </c>
-      <c r="F731" s="12"/>
-      <c r="G731" s="12"/>
-      <c r="H731" s="12"/>
-      <c r="I731" s="24"/>
-      <c r="J731" s="24"/>
-      <c r="K731" s="24"/>
-      <c r="L731" s="24"/>
-      <c r="M731" s="24"/>
-    </row>
-    <row r="732" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E732" s="2" t="s">
-        <v>870</v>
-      </c>
+    <row r="732" spans="1:13" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A732" s="21"/>
+      <c r="B732" s="22"/>
+      <c r="C732" s="22"/>
+      <c r="D732" s="23"/>
+      <c r="E732" s="8" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F732" s="12"/>
+      <c r="G732" s="12"/>
+      <c r="H732" s="12"/>
+      <c r="I732" s="24"/>
+      <c r="J732" s="24"/>
+      <c r="K732" s="24"/>
+      <c r="L732" s="24"/>
+      <c r="M732" s="24"/>
     </row>
     <row r="733" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E733" s="2" t="s">
-        <v>489</v>
+        <v>870</v>
       </c>
     </row>
     <row r="734" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E734" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="735" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E735" s="2" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="735" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B735" s="5" t="s">
+    <row r="736" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B736" s="5" t="s">
         <v>871</v>
       </c>
-      <c r="E735" s="2"/>
-    </row>
-    <row r="736" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E736" s="4" t="s">
-        <v>491</v>
-      </c>
+      <c r="E736" s="2"/>
     </row>
     <row r="737" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E737" s="4" t="s">
-        <v>989</v>
+        <v>491</v>
       </c>
     </row>
     <row r="738" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E738" s="4" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="739" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E739" s="4" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="740" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E740" s="4" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="741" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E741" s="4" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="742" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E742" s="4" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="743" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E743" s="2" t="s">
-        <v>492</v>
+      <c r="E743" s="4" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="744" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E744" s="2" t="s">
-        <v>1003</v>
+        <v>492</v>
       </c>
     </row>
     <row r="745" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E745" s="2" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="746" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E746" s="2" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="746" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E746" s="4" t="s">
-        <v>995</v>
-      </c>
-    </row>
     <row r="747" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E747" s="2" t="s">
+      <c r="E747" s="4" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="748" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E748" s="2" t="s">
         <v>494</v>
-      </c>
-    </row>
-    <row r="748" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E748" s="1" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="749" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E749" s="1" t="s">
-        <v>495</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="750" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E750" s="1" t="s">
-        <v>996</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="751" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E751" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="752" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E752" s="1" t="s">
-        <v>497</v>
+        <v>995</v>
       </c>
     </row>
     <row r="753" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E753" s="1" t="s">
-        <v>1004</v>
+        <v>496</v>
       </c>
     </row>
     <row r="754" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E754" s="2" t="s">
-        <v>1008</v>
+      <c r="E754" s="1" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="755" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E755" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="756" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E756" s="2" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="757" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E757" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="758" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E758" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="759" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E759" s="4" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="756" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E756" s="1" t="s">
+    <row r="760" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E760" s="4" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="757" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E757" s="4" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="758" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E758" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="759" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E759" s="2" t="s">
+    <row r="761" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E761" s="2" t="s">
         <v>498</v>
-      </c>
-    </row>
-    <row r="760" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E760" s="2" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="761" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E761" s="1" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="762" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E762" s="2" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="763" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E763" s="2" t="s">
-        <v>1007</v>
+      <c r="E763" s="1" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="764" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E764" s="2" t="s">
-        <v>872</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="765" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E765" s="2" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="766" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E766" s="2" t="s">
-        <v>1010</v>
+        <v>872</v>
       </c>
     </row>
     <row r="767" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E767" s="2" t="s">
-        <v>499</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="768" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E768" s="2" t="s">
-        <v>500</v>
+      <c r="E768" s="4" t="s">
+        <v>1138</v>
       </c>
     </row>
     <row r="769" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E769" s="2" t="s">
-        <v>501</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="770" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E770" s="2" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="771" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E771" s="3" t="s">
-        <v>1032</v>
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="771" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E771" s="2" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="772" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B772" s="5" t="s">
-        <v>873</v>
-      </c>
-      <c r="E772" s="2"/>
+      <c r="E772" s="2" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="773" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E773" s="1" t="s">
-        <v>502</v>
+      <c r="E773" s="2" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="774" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E774" s="2" t="s">
-        <v>503</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="775" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E775" s="2" t="s">
-        <v>874</v>
+        <v>501</v>
       </c>
     </row>
     <row r="776" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B776" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E776" s="2"/>
-    </row>
-    <row r="777" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E777" s="1" t="s">
-        <v>504</v>
+      <c r="E776" s="2" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="777" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E777" s="3" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="778" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E778" s="9" t="s">
-        <v>1110</v>
+      <c r="E778" s="3" t="s">
+        <v>1135</v>
       </c>
     </row>
     <row r="779" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E779" s="2" t="s">
-        <v>876</v>
-      </c>
+      <c r="B779" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="E779" s="2"/>
     </row>
     <row r="780" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B780" s="5" t="s">
-        <v>877</v>
-      </c>
-      <c r="E780" s="2"/>
+      <c r="E780" s="1" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="781" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D781" s="6" t="s">
-        <v>878</v>
-      </c>
-      <c r="E781" s="2"/>
+      <c r="E781" s="2" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="782" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E782" s="2" t="s">
-        <v>729</v>
+        <v>874</v>
       </c>
     </row>
     <row r="783" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B783" s="5" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="E783" s="2"/>
     </row>
     <row r="784" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E784" s="2" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="785" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E785" s="1" t="s">
-        <v>505</v>
+      <c r="E784" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="785" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E785" s="9" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="786" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E786" s="2" t="s">
-        <v>506</v>
+        <v>876</v>
       </c>
     </row>
     <row r="787" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E787" s="2" t="s">
-        <v>880</v>
-      </c>
+      <c r="B787" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="E787" s="2"/>
     </row>
     <row r="788" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E788" s="2" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="789" spans="1:13" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A789"/>
-      <c r="B789" s="13"/>
-      <c r="C789" s="14"/>
-      <c r="D789" s="15"/>
-      <c r="E789" s="8" t="s">
-        <v>1048</v>
-      </c>
-      <c r="F789" s="16"/>
-      <c r="G789" s="17"/>
-      <c r="H789" s="18"/>
-      <c r="I789" s="19"/>
-      <c r="J789" s="19"/>
-      <c r="K789" s="19"/>
-      <c r="L789" s="19"/>
-      <c r="M789" s="19"/>
-    </row>
-    <row r="790" spans="1:13" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A790"/>
-      <c r="B790" s="13"/>
-      <c r="C790" s="14"/>
-      <c r="D790" s="15"/>
-      <c r="E790" s="8" t="s">
-        <v>1049</v>
-      </c>
-      <c r="F790" s="16"/>
-      <c r="G790" s="17"/>
-      <c r="H790" s="18"/>
-      <c r="I790" s="19"/>
-      <c r="J790" s="19"/>
-      <c r="K790" s="19"/>
-      <c r="L790" s="19"/>
-      <c r="M790" s="19"/>
+      <c r="D788" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="E788" s="2"/>
+    </row>
+    <row r="789" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E789" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="790" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B790" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="E790" s="2"/>
     </row>
     <row r="791" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E791" s="2" t="s">
-        <v>507</v>
+        <v>724</v>
       </c>
     </row>
     <row r="792" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E792" s="2" t="s">
-        <v>508</v>
+      <c r="E792" s="1" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="793" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E793" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="794" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E794" s="2" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="795" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E795" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="796" spans="1:13" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A796"/>
+      <c r="B796" s="13"/>
+      <c r="C796" s="14"/>
+      <c r="D796" s="15"/>
+      <c r="E796" s="8" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F796" s="16"/>
+      <c r="G796" s="17"/>
+      <c r="H796" s="18"/>
+      <c r="I796" s="19"/>
+      <c r="J796" s="19"/>
+      <c r="K796" s="19"/>
+      <c r="L796" s="19"/>
+      <c r="M796" s="19"/>
+    </row>
+    <row r="797" spans="1:13" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A797"/>
+      <c r="B797" s="13"/>
+      <c r="C797" s="14"/>
+      <c r="D797" s="15"/>
+      <c r="E797" s="8" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F797" s="16"/>
+      <c r="G797" s="17"/>
+      <c r="H797" s="18"/>
+      <c r="I797" s="19"/>
+      <c r="J797" s="19"/>
+      <c r="K797" s="19"/>
+      <c r="L797" s="19"/>
+      <c r="M797" s="19"/>
+    </row>
+    <row r="798" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E798" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="799" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E799" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="800" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E800" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="801" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E801" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="795" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B795" s="5" t="s">
+    <row r="802" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B802" s="5" t="s">
         <v>881</v>
       </c>
-      <c r="E795" s="2"/>
-    </row>
-    <row r="796" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E796" s="2" t="s">
+      <c r="E802" s="2"/>
+    </row>
+    <row r="803" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E803" s="2" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="797" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E797" s="2" t="s">
+    <row r="804" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E804" s="2" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="798" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B798" s="5" t="s">
+    <row r="805" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B805" s="5" t="s">
         <v>882</v>
       </c>
-      <c r="E798" s="2"/>
-    </row>
-    <row r="799" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E799" s="4" t="s">
+      <c r="E805" s="2"/>
+    </row>
+    <row r="806" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E806" s="4" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="800" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E800" s="12" t="s">
+    <row r="807" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E807" s="12" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="808" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E808" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="809" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E809" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="810" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E810" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="811" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E811" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="812" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E812" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="813" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E813" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="814" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E814" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="815" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E815" s="1" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="801" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E801" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="802" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E802" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="803" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E803" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="804" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E804" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="805" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E805" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="806" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E806" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="807" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E807" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="808" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E808" s="1" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="809" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E809" s="1" t="s">
+    <row r="816" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E816" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="810" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E810" s="1" t="s">
+    <row r="817" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E817" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="811" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E811" s="2" t="s">
+    <row r="818" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E818" s="2" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="812" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E812" s="2" t="s">
+    <row r="819" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E819" s="2" t="s">
         <v>523</v>
-      </c>
-    </row>
-    <row r="813" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E813" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="814" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E814" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="815" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E815" s="2" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="816" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E816" s="2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="817" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E817" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="818" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E818" s="12" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="819" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E819" s="12" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="820" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E820" s="2" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="821" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E821" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="822" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E822" s="2" t="s">
-        <v>530</v>
+        <v>883</v>
       </c>
     </row>
     <row r="823" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B823" s="5" t="s">
-        <v>884</v>
-      </c>
-      <c r="E823" s="2"/>
+      <c r="E823" s="2" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="824" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E824" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="825" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E825" s="1" t="s">
-        <v>532</v>
+      <c r="E825" s="12" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="826" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E826" s="1" t="s">
-        <v>533</v>
+      <c r="E826" s="12" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="827" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E827" s="2" t="s">
-        <v>885</v>
+        <v>528</v>
       </c>
     </row>
     <row r="828" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E828" s="2" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="829" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E829" s="2" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="830" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E830" s="2" t="s">
-        <v>536</v>
-      </c>
+      <c r="B830" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="E830" s="2"/>
     </row>
     <row r="831" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E831" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="832" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E832" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="833" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E833" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="834" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E834" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="835" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E835" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="836" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E836" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="837" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E837" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="838" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E838" s="2" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="832" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E832" s="2" t="s">
+    <row r="839" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E839" s="2" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="833" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E833" s="2" t="s">
+    <row r="840" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E840" s="2" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="834" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B834" s="5" t="s">
+    <row r="841" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B841" s="5" t="s">
         <v>886</v>
       </c>
-      <c r="E834" s="2"/>
-    </row>
-    <row r="835" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E835" s="2" t="s">
+      <c r="E841" s="2"/>
+    </row>
+    <row r="842" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E842" s="2" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="836" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E836" s="2" t="s">
+    <row r="843" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E843" s="2" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="837" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B837" s="5" t="s">
+    <row r="844" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B844" s="5" t="s">
         <v>889</v>
       </c>
-      <c r="E837" s="2"/>
-    </row>
-    <row r="838" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E838" s="1" t="s">
+      <c r="E844" s="2"/>
+    </row>
+    <row r="845" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E845" s="1" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="846" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E846" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="847" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E847" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="848" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E848" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="849" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E849" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="850" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E850" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="851" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E851" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="852" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E852" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="853" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E853" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="854" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E854" s="9" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="855" spans="1:13" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A855" s="21"/>
+      <c r="B855" s="22"/>
+      <c r="C855" s="22"/>
+      <c r="D855" s="27"/>
+      <c r="E855" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F855" s="12"/>
+      <c r="G855" s="12"/>
+      <c r="H855" s="12"/>
+      <c r="I855" s="24"/>
+      <c r="J855" s="24"/>
+      <c r="K855" s="24"/>
+      <c r="L855" s="24"/>
+      <c r="M855" s="24"/>
+    </row>
+    <row r="856" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E856" s="9" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="857" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E857" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="858" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E858" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="859" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E859" s="2" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="839" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E839" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="840" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E840" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="841" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E841" s="3" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="842" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E842" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="843" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E843" s="2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="844" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E844" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="845" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E845" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="846" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E846" s="1" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="847" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E847" s="9" t="s">
+    <row r="860" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E860" s="2" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="861" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E861" s="2" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="848" spans="1:13" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A848" s="21"/>
-      <c r="B848" s="22"/>
-      <c r="C848" s="22"/>
-      <c r="D848" s="27"/>
-      <c r="E848" s="9" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F848" s="12"/>
-      <c r="G848" s="12"/>
-      <c r="H848" s="12"/>
-      <c r="I848" s="24"/>
-      <c r="J848" s="24"/>
-      <c r="K848" s="24"/>
-      <c r="L848" s="24"/>
-      <c r="M848" s="24"/>
-    </row>
-    <row r="849" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E849" s="9" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="850" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E850" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="851" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E851" s="2" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="852" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E852" s="2" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="853" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E853" s="2" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="854" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E854" s="2" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="855" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E855" s="2" t="s">
+    <row r="862" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E862" s="2" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="856" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B856" s="5" t="s">
+    <row r="863" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B863" s="5" t="s">
         <v>890</v>
       </c>
-      <c r="E856" s="2"/>
-    </row>
-    <row r="857" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E857" s="1" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="858" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E858" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="859" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E859" s="2" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="860" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E860" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="861" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E861" s="2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="862" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E862" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="863" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E863" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="864" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B864" s="5" t="s">
-        <v>892</v>
-      </c>
-      <c r="E864" s="2"/>
+      <c r="E863" s="2"/>
+    </row>
+    <row r="864" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E864" s="1" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="865" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E865" s="1" t="s">
-        <v>893</v>
+        <v>550</v>
       </c>
     </row>
     <row r="866" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B866" s="5" t="s">
-        <v>894</v>
-      </c>
-      <c r="E866" s="1"/>
+      <c r="E866" s="2" t="s">
+        <v>891</v>
+      </c>
     </row>
     <row r="867" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E867" s="2" t="s">
-        <v>895</v>
+        <v>551</v>
       </c>
     </row>
     <row r="868" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B868" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="E868" s="2"/>
+      <c r="E868" s="2" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="869" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E869" s="2" t="s">
-        <v>727</v>
+        <v>553</v>
       </c>
     </row>
     <row r="870" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E870" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="871" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E871" s="9" t="s">
-        <v>1079</v>
-      </c>
+        <v>554</v>
+      </c>
+    </row>
+    <row r="871" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B871" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="E871" s="2"/>
     </row>
     <row r="872" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E872" s="2" t="s">
-        <v>556</v>
+      <c r="E872" s="1" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="873" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E873" s="2" t="s">
-        <v>1080</v>
-      </c>
+      <c r="B873" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="E873" s="1"/>
     </row>
     <row r="874" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E874" s="2" t="s">
-        <v>1081</v>
+        <v>895</v>
       </c>
     </row>
     <row r="875" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E875" s="1" t="s">
-        <v>557</v>
-      </c>
+      <c r="B875" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="E875" s="2"/>
     </row>
     <row r="876" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E876" s="1" t="s">
-        <v>1082</v>
+      <c r="E876" s="2" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="877" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E877" s="1" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="878" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E878" s="1" t="s">
-        <v>558</v>
+      <c r="E877" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="878" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E878" s="9" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="879" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E879" s="1" t="s">
-        <v>559</v>
+      <c r="E879" s="2" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="880" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E880" s="1" t="s">
-        <v>560</v>
+      <c r="E880" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="881" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E881" s="1" t="s">
-        <v>561</v>
+      <c r="E881" s="2" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="882" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E882" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="883" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E883" s="1" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="884" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E884" s="1" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="885" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E885" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="886" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E886" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="887" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E887" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="888" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E888" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="889" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E889" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="890" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E890" s="1" t="s">
         <v>563</v>
-      </c>
-    </row>
-    <row r="884" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E884" s="2" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="885" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E885" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="886" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E886" s="2" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="887" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E887" s="2" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="888" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E888" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="889" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E889" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="890" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E890" s="2" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="891" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E891" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="892" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E892" s="2" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="893" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E893" s="2" t="s">
-        <v>570</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="894" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E894" s="2" t="s">
-        <v>571</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="895" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E895" s="2" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="896" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E896" s="2" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="897" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E897" s="2" t="s">
-        <v>1085</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="898" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E898" s="2" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="899" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E899" s="2" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="900" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E900" s="2" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="901" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E901" s="2" t="s">
-        <v>1086</v>
+        <v>571</v>
       </c>
     </row>
     <row r="902" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E902" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="903" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E903" s="2" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="904" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E904" s="2" t="s">
-        <v>579</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="905" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E905" s="2" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="906" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E906" s="2" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="907" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E907" s="2" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="908" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E908" s="2" t="s">
-        <v>583</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="909" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E909" s="2" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
     </row>
     <row r="910" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E910" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="911" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E911" s="2" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
     </row>
     <row r="912" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E912" s="2" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="913" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E913" s="2" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
     </row>
     <row r="914" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E914" s="2" t="s">
-        <v>1087</v>
+        <v>582</v>
       </c>
     </row>
     <row r="915" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E915" s="2" t="s">
-        <v>1088</v>
+        <v>583</v>
       </c>
     </row>
     <row r="916" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E916" s="1" t="s">
+      <c r="E916" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="917" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E917" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="918" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E918" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="919" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E919" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="920" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E920" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="921" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E921" s="2" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="922" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E922" s="2" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="923" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E923" s="1" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="917" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B917" s="5" t="s">
+    <row r="924" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B924" s="5" t="s">
         <v>896</v>
       </c>
-      <c r="E917" s="1"/>
-    </row>
-    <row r="918" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E918" s="1" t="s">
+      <c r="E924" s="1"/>
+    </row>
+    <row r="925" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E925" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="919" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B919" s="5" t="s">
+    <row r="926" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B926" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="E919" s="1"/>
-    </row>
-    <row r="920" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E920" s="1" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="921" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B921" s="5" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E921" s="1"/>
-    </row>
-    <row r="922" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E922" s="1" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="923" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E923" s="2" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="924" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E924" s="2" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="925" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E925" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="926" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B926" s="5" t="s">
-        <v>858</v>
-      </c>
-      <c r="E926" s="2"/>
+      <c r="E926" s="1"/>
     </row>
     <row r="927" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E927" s="1" t="s">
-        <v>591</v>
+        <v>740</v>
       </c>
     </row>
     <row r="928" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E928" s="2" t="s">
-        <v>859</v>
-      </c>
+      <c r="B928" s="5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E928" s="1"/>
     </row>
     <row r="929" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E929" s="2" t="s">
-        <v>592</v>
+      <c r="E929" s="1" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="930" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B930" s="5" t="s">
-        <v>856</v>
-      </c>
-      <c r="E930" s="2"/>
+      <c r="E930" s="2" t="s">
+        <v>1098</v>
+      </c>
     </row>
     <row r="931" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E931" s="2" t="s">
-        <v>857</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="932" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B932" s="5" t="s">
-        <v>860</v>
-      </c>
-      <c r="E932" s="2"/>
-    </row>
-    <row r="933" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E933" s="1" t="s">
-        <v>593</v>
-      </c>
+      <c r="E932" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="933" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B933" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="E933" s="2"/>
     </row>
     <row r="934" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E934" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="935" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E935" s="2" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="936" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B936" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E936" s="2"/>
+      <c r="E936" s="2" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="937" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E937" s="2" t="s">
-        <v>716</v>
-      </c>
+      <c r="B937" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="E937" s="2"/>
     </row>
     <row r="938" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B938" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="E938" s="2"/>
+      <c r="E938" s="2" t="s">
+        <v>857</v>
+      </c>
     </row>
     <row r="939" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E939" s="1" t="s">
-        <v>900</v>
-      </c>
+      <c r="B939" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="E939" s="2"/>
     </row>
     <row r="940" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E940" s="1" t="s">
-        <v>945</v>
+        <v>593</v>
       </c>
     </row>
     <row r="941" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E941" s="2" t="s">
-        <v>595</v>
+      <c r="E941" s="1" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="942" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E942" s="2" t="s">
-        <v>596</v>
+        <v>861</v>
       </c>
     </row>
     <row r="943" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E943" s="2" t="s">
-        <v>597</v>
-      </c>
+      <c r="B943" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E943" s="2"/>
     </row>
     <row r="944" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E944" s="2" t="s">
-        <v>598</v>
+        <v>716</v>
       </c>
     </row>
     <row r="945" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E945" s="2" t="s">
-        <v>599</v>
-      </c>
+      <c r="B945" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="E945" s="2"/>
     </row>
     <row r="946" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B946" s="5" t="s">
-        <v>901</v>
-      </c>
-      <c r="E946" s="2"/>
+      <c r="E946" s="1" t="s">
+        <v>900</v>
+      </c>
     </row>
     <row r="947" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E947" s="1" t="s">
-        <v>902</v>
+        <v>944</v>
       </c>
     </row>
     <row r="948" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E948" s="2" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="949" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E949" s="1" t="s">
-        <v>1036</v>
+      <c r="E949" s="2" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="950" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B950" s="5" t="s">
-        <v>903</v>
-      </c>
-      <c r="E950" s="1"/>
+      <c r="E950" s="2" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="951" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E951" s="2" t="s">
-        <v>1039</v>
+        <v>598</v>
       </c>
     </row>
     <row r="952" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E952" s="2" t="s">
-        <v>904</v>
+        <v>599</v>
       </c>
     </row>
     <row r="953" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B953" s="5" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="E953" s="2"/>
     </row>
     <row r="954" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E954" s="2" t="s">
-        <v>906</v>
+      <c r="E954" s="1" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="955" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B955" s="5" t="s">
-        <v>961</v>
-      </c>
-      <c r="E955" s="2"/>
+      <c r="E955" s="2" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="956" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E956" s="1" t="s">
-        <v>962</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="957" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B957" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="E957" s="1"/>
+    </row>
+    <row r="958" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E958" s="2" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="959" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E959" s="2" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="960" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B960" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="E960" s="2"/>
+    </row>
+    <row r="961" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E961" s="2" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="962" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B962" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="E962" s="2"/>
+    </row>
+    <row r="963" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E963" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="964" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B964" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="E957" s="1"/>
-    </row>
-    <row r="958" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E958" s="1" t="s">
+      <c r="E964" s="1"/>
+    </row>
+    <row r="965" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E965" s="1" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="959" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B959" s="5" t="s">
+    <row r="966" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B966" s="5" t="s">
         <v>909</v>
       </c>
-      <c r="E959" s="1"/>
-    </row>
-    <row r="960" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E960" s="1" t="s">
+      <c r="E966" s="1"/>
+    </row>
+    <row r="967" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E967" s="1" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="961" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E961" s="1" t="s">
+    <row r="968" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E968" s="1" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="962" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E962" s="2" t="s">
+    <row r="969" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E969" s="2" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="963" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E963" s="1" t="s">
+    <row r="970" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E970" s="1" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="964" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E964" s="2" t="s">
+    <row r="971" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E971" s="2" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="965" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E965" s="1" t="s">
+    <row r="972" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E972" s="1" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="966" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E966" s="2" t="s">
+    <row r="973" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E973" s="2" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="967" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E967" s="1" t="s">
+    <row r="974" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E974" s="1" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="968" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E968" s="1" t="s">
+    <row r="975" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E975" s="1" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="969" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E969" s="2" t="s">
+    <row r="976" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E976" s="2" t="s">
         <v>714</v>
-      </c>
-    </row>
-    <row r="970" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E970" s="2" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="971" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E971" s="1" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="972" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E972" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="973" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E973" s="2" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="974" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E974" s="2" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="975" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E975" s="2" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="976" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E976" s="2" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="977" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E977" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="978" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E978" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="979" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E979" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="980" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E980" s="2" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="981" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E981" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="982" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E982" s="2" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="983" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E983" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="984" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E984" s="2" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="978" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E978" s="2" t="s">
+    <row r="985" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E985" s="2" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="979" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E979" s="2" t="s">
+    <row r="986" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E986" s="2" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="980" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B980" s="5" t="s">
+    <row r="987" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B987" s="5" t="s">
         <v>918</v>
       </c>
-      <c r="E980" s="2"/>
-    </row>
-    <row r="981" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E981" s="4" t="s">
+      <c r="E987" s="2"/>
+    </row>
+    <row r="988" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E988" s="4" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="982" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E982" s="1" t="s">
+    <row r="989" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E989" s="1" t="s">
         <v>612</v>
-      </c>
-    </row>
-    <row r="983" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E983" s="1" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="984" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E984" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="985" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E985" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="986" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E986" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="987" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E987" s="1" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="988" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E988" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="989" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E989" s="2" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="990" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E990" s="1" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="991" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E991" s="2" t="s">
-        <v>621</v>
+      <c r="E991" s="1" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="992" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E992" s="2" t="s">
-        <v>622</v>
+      <c r="E992" s="1" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="993" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E993" s="2" t="s">
-        <v>623</v>
+      <c r="E993" s="1" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="994" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E994" s="1" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
     </row>
     <row r="995" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E995" s="1" t="s">
-        <v>625</v>
+      <c r="E995" s="2" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="996" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E996" s="2" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
     </row>
     <row r="997" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E997" s="1" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="998" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E998" s="1" t="s">
-        <v>628</v>
+      <c r="E998" s="2" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="999" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E999" s="1" t="s">
-        <v>629</v>
+      <c r="E999" s="2" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="1000" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1000" s="1" t="s">
-        <v>630</v>
+      <c r="E1000" s="2" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="1001" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1001" s="2" t="s">
-        <v>631</v>
+      <c r="E1001" s="1" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="1002" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1002" s="1" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1003" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1003" s="1" t="s">
-        <v>633</v>
+      <c r="E1003" s="2" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="1004" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1004" s="1" t="s">
-        <v>919</v>
+        <v>627</v>
       </c>
     </row>
     <row r="1005" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1005" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="1006" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1006" s="2" t="s">
-        <v>635</v>
+      <c r="E1006" s="1" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="1007" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1007" s="2" t="s">
-        <v>636</v>
+      <c r="E1007" s="1" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="1008" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1008" s="1" t="s">
-        <v>637</v>
+      <c r="E1008" s="2" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="1009" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1009" s="1" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="1010" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1010" s="2" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="1011" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E1011" s="9" t="s">
-        <v>1111</v>
+      <c r="E1010" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1011" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1011" s="1" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="1012" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1012" s="1" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="1013" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1013" s="2" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="1014" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1014" s="2" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
     <row r="1015" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1015" s="2" t="s">
-        <v>643</v>
+      <c r="E1015" s="1" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="1016" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1016" s="2" t="s">
-        <v>644</v>
+      <c r="E1016" s="1" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="1017" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1017" s="2" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="1018" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1018" s="2" t="s">
-        <v>646</v>
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1018" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E1018" s="9" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="1019" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1019" s="2" t="s">
-        <v>647</v>
+      <c r="E1019" s="1" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="1020" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1020" s="2" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
     </row>
     <row r="1021" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1021" s="2" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
     </row>
     <row r="1022" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1022" s="2" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
     </row>
     <row r="1023" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1023" s="2" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
     </row>
     <row r="1024" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1024" s="2" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="1025" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1025" s="2" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
     </row>
     <row r="1026" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1026" s="2" t="s">
-        <v>717</v>
+        <v>647</v>
       </c>
     </row>
     <row r="1027" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1027" s="2" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
     <row r="1028" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1028" s="2" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="1029" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1029" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="E1029" s="2"/>
-    </row>
-    <row r="1030" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D1030" s="6" t="s">
-        <v>1129</v>
-      </c>
-      <c r="E1030" s="2"/>
+      <c r="E1029" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="1030" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1030" s="2" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="1031" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1031" s="2" t="s">
-        <v>920</v>
+        <v>652</v>
       </c>
     </row>
     <row r="1032" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1032" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="1033" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1033" s="2" t="s">
-        <v>657</v>
+        <v>717</v>
       </c>
     </row>
     <row r="1034" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1034" s="1" t="s">
-        <v>658</v>
+      <c r="E1034" s="2" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="1035" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1035" s="5" t="s">
-        <v>922</v>
-      </c>
-      <c r="E1035" s="1"/>
+      <c r="E1035" s="2" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="1036" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1036" s="2" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="1037" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1037" s="5" t="s">
-        <v>924</v>
+      <c r="B1036" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="E1036" s="2"/>
+    </row>
+    <row r="1037" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D1037" s="6" t="s">
+        <v>1126</v>
       </c>
       <c r="E1037" s="2"/>
     </row>
-    <row r="1038" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C1038" s="7" t="s">
-        <v>946</v>
-      </c>
-      <c r="E1038" s="2"/>
-    </row>
-    <row r="1039" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C1039" s="10" t="s">
-        <v>925</v>
-      </c>
-      <c r="E1039" s="2"/>
+    <row r="1038" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1038" s="2" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="1039" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1039" s="2" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="1040" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1040" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="1041" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1041" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="1042" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1042" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="E1042" s="1"/>
+    </row>
+    <row r="1043" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1043" s="2" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="1044" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1044" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="E1044" s="2"/>
+    </row>
+    <row r="1045" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C1045" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="E1045" s="2"/>
+    </row>
+    <row r="1046" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C1046" s="10" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E1046" s="2"/>
+    </row>
+    <row r="1047" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1047" s="2" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="1041" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1041" s="2" t="s">
+    <row r="1048" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1048" s="2" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="1042" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1042" s="2" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="1043" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E1043" s="3" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="1044" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1044" s="1" t="s">
+    <row r="1049" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1049" s="2" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="1050" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E1050" s="3" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="1051" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1051" s="1" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="1045" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1045" s="1" t="s">
+    <row r="1052" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1052" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="1046" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1046" s="1" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="1047" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1047" s="1" t="s">
+    <row r="1053" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1053" s="1" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="1054" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1054" s="1" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="1048" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1048" s="1" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="1049" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1049" s="1" t="s">
+    <row r="1055" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1055" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="1056" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1056" s="1" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="1050" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1050" s="2" t="s">
+    <row r="1057" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1057" s="2" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="1051" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1051" s="2" t="s">
+    <row r="1058" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1058" s="2" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="1052" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1052" s="1" t="s">
+    <row r="1059" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1059" s="1" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="1053" spans="1:13" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1053"/>
-      <c r="B1053" s="13"/>
-      <c r="C1053" s="14"/>
-      <c r="D1053" s="6"/>
-      <c r="E1053" s="9" t="s">
+    <row r="1060" spans="1:13" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1060"/>
+      <c r="B1060" s="13"/>
+      <c r="C1060" s="14"/>
+      <c r="D1060" s="6"/>
+      <c r="E1060" s="9" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F1060" s="16"/>
+      <c r="G1060" s="17"/>
+      <c r="H1060" s="18"/>
+      <c r="I1060" s="19"/>
+      <c r="J1060" s="19"/>
+      <c r="K1060" s="19"/>
+      <c r="L1060" s="19"/>
+      <c r="M1060" s="19"/>
+    </row>
+    <row r="1061" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1061" s="8" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1062" s="8" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1063" s="8" t="s">
         <v>1115</v>
       </c>
-      <c r="F1053" s="16"/>
-      <c r="G1053" s="17"/>
-      <c r="H1053" s="18"/>
-      <c r="I1053" s="19"/>
-      <c r="J1053" s="19"/>
-      <c r="K1053" s="19"/>
-      <c r="L1053" s="19"/>
-      <c r="M1053" s="19"/>
-    </row>
-    <row r="1054" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1054" s="8" t="s">
+    </row>
+    <row r="1064" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1064" s="8" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="1055" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1055" s="8" t="s">
+    <row r="1065" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1065" s="8" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="1056" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1056" s="8" t="s">
+    <row r="1066" spans="1:13" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1066"/>
+      <c r="B1066" s="13"/>
+      <c r="C1066" s="14"/>
+      <c r="D1066" s="6"/>
+      <c r="E1066" s="9" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="1057" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1057" s="8" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="1058" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1058" s="8" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="1059" spans="1:13" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1059"/>
-      <c r="B1059" s="13"/>
-      <c r="C1059" s="14"/>
-      <c r="D1059" s="6"/>
-      <c r="E1059" s="9" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F1059" s="16"/>
-      <c r="G1059" s="17"/>
-      <c r="H1059" s="18"/>
-      <c r="I1059" s="19"/>
-      <c r="J1059" s="19"/>
-      <c r="K1059" s="19"/>
-      <c r="L1059" s="19"/>
-      <c r="M1059" s="19"/>
-    </row>
-    <row r="1060" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1060" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1061" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="1062" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1062" s="1" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1063" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="1064" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1064" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="1065" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1065" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="1066" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1066" s="1" t="s">
-        <v>671</v>
-      </c>
+      <c r="F1066" s="16"/>
+      <c r="G1066" s="17"/>
+      <c r="H1066" s="18"/>
+      <c r="I1066" s="19"/>
+      <c r="J1066" s="19"/>
+      <c r="K1066" s="19"/>
+      <c r="L1066" s="19"/>
+      <c r="M1066" s="19"/>
     </row>
     <row r="1067" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1067" s="1" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
     </row>
     <row r="1068" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1068" s="1" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
     </row>
     <row r="1069" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1069" s="1" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="1070" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1070" s="1" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
     </row>
     <row r="1071" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1071" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1072" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="1073" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1073" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="1074" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1074" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="1075" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1075" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="1076" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1076" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="1077" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1077" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="1078" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1078" s="1" t="s">
         <v>676</v>
-      </c>
-    </row>
-    <row r="1072" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1072" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="1073" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1073" s="2" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="1074" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1074" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="1075" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1075" s="2" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="1076" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1076" s="2" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="1077" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1077" s="2" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="1078" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E1078" s="9" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="1079" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1079" s="2" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="1080" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1080" s="2" t="s">
-        <v>683</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="1081" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1081" s="2" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1082" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1082" s="2" t="s">
-        <v>1021</v>
+        <v>679</v>
       </c>
     </row>
     <row r="1083" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1083" s="2" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="1084" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1084" s="2" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="1085" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1085" s="2" t="s">
-        <v>687</v>
+        <v>681</v>
+      </c>
+    </row>
+    <row r="1085" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E1085" s="9" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="1086" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1086" s="2" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
     </row>
     <row r="1087" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1087" s="2" t="s">
-        <v>1022</v>
+        <v>683</v>
       </c>
     </row>
     <row r="1088" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1088" s="2" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="1089" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1089" s="2" t="s">
-        <v>690</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1090" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1090" s="2" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
     </row>
     <row r="1091" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1091" s="2" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="1092" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1092" s="2" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="1093" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1093" s="2" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="1094" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1094" s="29" t="s">
-        <v>1078</v>
+      <c r="E1094" s="2" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="1095" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1095" s="5" t="s">
-        <v>940</v>
-      </c>
-      <c r="E1095" s="2"/>
+      <c r="E1095" s="2" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="1096" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1096" s="2" t="s">
-        <v>941</v>
+        <v>690</v>
       </c>
     </row>
     <row r="1097" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1097" s="2" t="s">
-        <v>943</v>
+        <v>691</v>
       </c>
     </row>
     <row r="1098" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1098" s="2" t="s">
-        <v>942</v>
+        <v>692</v>
       </c>
     </row>
     <row r="1099" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1099" s="2" t="s">
-        <v>944</v>
+        <v>693</v>
       </c>
     </row>
     <row r="1100" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1100" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="E1100" s="2"/>
+      <c r="E1100" s="29" t="s">
+        <v>1131</v>
+      </c>
     </row>
     <row r="1101" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1101" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="1102" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B1102" s="5" t="s">
-        <v>734</v>
+        <v>939</v>
       </c>
       <c r="E1102" s="2"/>
     </row>
     <row r="1103" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1103" s="1" t="s">
-        <v>711</v>
+      <c r="E1103" s="2" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="1104" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1104" s="5" t="s">
-        <v>926</v>
-      </c>
-      <c r="E1104" s="1"/>
+      <c r="E1104" s="2" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="1105" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1105" s="2" t="s">
-        <v>696</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1106" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1106" s="1" t="s">
-        <v>927</v>
+      <c r="E1106" s="2" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="1107" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1107" s="2" t="s">
-        <v>697</v>
+        <v>943</v>
       </c>
     </row>
     <row r="1108" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B1108" s="5" t="s">
-        <v>928</v>
+        <v>710</v>
       </c>
       <c r="E1108" s="2"/>
     </row>
     <row r="1109" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1109" s="1" t="s">
-        <v>929</v>
+      <c r="E1109" s="2" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="1110" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B1110" s="5" t="s">
-        <v>732</v>
-      </c>
-      <c r="E1110" s="1"/>
+        <v>734</v>
+      </c>
+      <c r="E1110" s="2"/>
     </row>
     <row r="1111" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1111" s="1" t="s">
-        <v>733</v>
+        <v>711</v>
       </c>
     </row>
     <row r="1112" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B1112" s="5" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="E1112" s="1"/>
     </row>
-    <row r="1113" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D1113" s="6" t="s">
-        <v>931</v>
-      </c>
-      <c r="E1113" s="1"/>
+    <row r="1113" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1113" s="2" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="1114" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1114" s="1" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="1115" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B1115" s="5" t="s">
-        <v>933</v>
-      </c>
-      <c r="E1115" s="1"/>
-    </row>
-    <row r="1116" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D1116" s="6" t="s">
-        <v>934</v>
-      </c>
-      <c r="E1116" s="1"/>
+        <v>926</v>
+      </c>
+    </row>
+    <row r="1115" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1115" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="1116" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1116" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="E1116" s="2"/>
     </row>
     <row r="1117" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1117" s="1" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
     <row r="1118" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B1118" s="5" t="s">
-        <v>935</v>
+        <v>732</v>
       </c>
       <c r="E1118" s="1"/>
     </row>
     <row r="1119" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1119" s="1" t="s">
-        <v>936</v>
+        <v>733</v>
       </c>
     </row>
     <row r="1120" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B1120" s="5" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="E1120" s="1"/>
     </row>
-    <row r="1121" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1121" s="2" t="s">
-        <v>938</v>
-      </c>
+    <row r="1121" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D1121" s="6" t="s">
+        <v>930</v>
+      </c>
+      <c r="E1121" s="1"/>
     </row>
     <row r="1122" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1122" s="5" t="s">
-        <v>939</v>
-      </c>
-      <c r="E1122" s="2"/>
-    </row>
-    <row r="1123" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1123" s="1" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="1124" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1124" s="2" t="s">
-        <v>699</v>
-      </c>
+      <c r="E1122" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="1123" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B1123" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="E1123" s="1"/>
+    </row>
+    <row r="1124" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D1124" s="6" t="s">
+        <v>933</v>
+      </c>
+      <c r="E1124" s="1"/>
     </row>
     <row r="1125" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1125" s="2" t="s">
-        <v>700</v>
+      <c r="E1125" s="1" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="1126" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1126" s="2" t="s">
-        <v>701</v>
-      </c>
+      <c r="B1126" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="E1126" s="1"/>
     </row>
     <row r="1127" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1127" s="2" t="s">
-        <v>702</v>
+      <c r="E1127" s="1" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="1128" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1128" s="2" t="s">
-        <v>1060</v>
-      </c>
+      <c r="B1128" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="E1128" s="1"/>
     </row>
     <row r="1129" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1129" s="2" t="s">
-        <v>703</v>
+        <v>937</v>
       </c>
     </row>
     <row r="1130" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1130" s="2" t="s">
-        <v>704</v>
-      </c>
+      <c r="B1130" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="E1130" s="2"/>
     </row>
     <row r="1131" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1131" s="2" t="s">
-        <v>705</v>
+      <c r="E1131" s="1" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="1132" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E1132" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="1133" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1133" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="1134" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1134" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="1135" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1135" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="1136" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1136" s="2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="1137" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1137" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="1138" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1138" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="1139" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1139" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="1140" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1140" s="2" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="1133" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1133" s="5" t="s">
+    <row r="1141" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1141" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="E1141" s="2"/>
+    </row>
+    <row r="1142" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E1142" s="1" t="s">
         <v>963</v>
-      </c>
-      <c r="E1133" s="2"/>
-    </row>
-    <row r="1134" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E1134" s="1" t="s">
-        <v>964</v>
       </c>
     </row>
   </sheetData>
